--- a/data/maingraphs-performance-table.xlsx
+++ b/data/maingraphs-performance-table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="51">
   <si>
     <t>BENCHMARK x</t>
   </si>
@@ -171,6 +171,9 @@
   <si>
     <t>offset for indirect lookup</t>
   </si>
+  <si>
+    <t>UPDATED 20180301</t>
+  </si>
 </sst>
 </file>
 
@@ -182,7 +185,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,7 +214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,6 +239,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -247,7 +255,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -295,14 +303,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -326,6 +349,13 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -349,6 +379,13 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -678,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:A42"/>
+      <selection activeCell="Q5" sqref="Q5:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -689,7 +726,7 @@
     <col min="1" max="1" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -733,7 +770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:18">
       <c r="B2" t="s">
         <v>14</v>
       </c>
@@ -774,59 +811,59 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1">
+    <row r="3" spans="1:18" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4">
-        <v>657.3</v>
+        <v>663.9</v>
       </c>
       <c r="C4">
-        <v>490.2</v>
+        <v>496.3</v>
       </c>
       <c r="D4">
-        <v>471.8</v>
+        <v>475.8</v>
       </c>
       <c r="E4">
-        <v>250.7</v>
+        <v>250.4</v>
       </c>
       <c r="F4">
-        <v>226.1</v>
+        <v>226.4</v>
       </c>
       <c r="G4">
-        <v>123.2</v>
+        <v>124.3</v>
       </c>
       <c r="H4">
         <v>122.8</v>
       </c>
       <c r="I4">
-        <v>488.1</v>
+        <v>492.5</v>
       </c>
       <c r="J4">
-        <v>278.39999999999998</v>
+        <v>278.60000000000002</v>
       </c>
       <c r="K4">
         <v>350.3</v>
       </c>
       <c r="L4">
-        <v>315</v>
+        <v>403.5</v>
       </c>
       <c r="M4">
-        <v>180.9</v>
+        <v>181.7</v>
       </c>
       <c r="N4">
-        <v>200.9</v>
+        <v>202.2</v>
       </c>
       <c r="O4">
-        <v>319.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>328.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -840,40 +877,44 @@
         <v>202.2</v>
       </c>
       <c r="E5">
-        <v>168</v>
+        <v>166.4</v>
       </c>
       <c r="F5">
-        <v>106</v>
+        <v>105.3</v>
       </c>
       <c r="G5">
-        <v>61.3</v>
+        <v>61.9</v>
       </c>
       <c r="H5">
-        <v>57.5</v>
+        <v>57.2</v>
       </c>
       <c r="I5">
         <v>205.5</v>
       </c>
       <c r="J5">
-        <v>110.9</v>
+        <v>109.8</v>
       </c>
       <c r="K5">
-        <v>127</v>
+        <v>125.6</v>
       </c>
       <c r="L5">
-        <v>98.7</v>
+        <v>145.5</v>
       </c>
       <c r="M5">
-        <v>80.900000000000006</v>
+        <v>81.3</v>
       </c>
       <c r="N5">
-        <v>78.7</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="O5">
-        <v>135.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -896,7 +937,7 @@
         <v>28.5</v>
       </c>
       <c r="H6">
-        <v>25.9</v>
+        <v>25.2</v>
       </c>
       <c r="I6">
         <v>190.4</v>
@@ -908,7 +949,7 @@
         <v>91.3</v>
       </c>
       <c r="L6">
-        <v>123.8</v>
+        <v>173.2</v>
       </c>
       <c r="M6">
         <v>68.5</v>
@@ -917,57 +958,57 @@
         <v>43.5</v>
       </c>
       <c r="O6">
-        <v>106.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7">
-        <v>16.600000000000001</v>
+        <v>23.3</v>
       </c>
       <c r="C7">
-        <v>8.1</v>
+        <v>14.1</v>
       </c>
       <c r="D7">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E7">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="F7">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="G7">
-        <v>-1.7</v>
+        <v>-1.2</v>
       </c>
       <c r="H7">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="I7">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="J7">
-        <v>4.4000000000000004</v>
+        <v>5.7</v>
       </c>
       <c r="K7">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="L7">
-        <v>6</v>
+        <v>16.3</v>
       </c>
       <c r="M7">
-        <v>-3.5</v>
+        <v>-3.1</v>
       </c>
       <c r="N7">
-        <v>7.8</v>
+        <v>9.5</v>
       </c>
       <c r="O7">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -990,7 +1031,7 @@
         <v>35.1</v>
       </c>
       <c r="H8">
-        <v>35.700000000000003</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="I8">
         <v>88.8</v>
@@ -1002,7 +1043,7 @@
         <v>103.6</v>
       </c>
       <c r="L8">
-        <v>73.099999999999994</v>
+        <v>55</v>
       </c>
       <c r="M8">
         <v>35</v>
@@ -1011,10 +1052,10 @@
         <v>66.5</v>
       </c>
       <c r="O8">
-        <v>69.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1061,106 +1102,106 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1">
+    <row r="10" spans="1:18" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="B11">
-        <v>657.3</v>
+        <v>663.9</v>
       </c>
       <c r="C11">
-        <v>490.2</v>
+        <v>496.3</v>
       </c>
       <c r="D11">
-        <v>471.8</v>
+        <v>475.8</v>
       </c>
       <c r="E11">
-        <v>250.7</v>
+        <v>250.4</v>
       </c>
       <c r="F11">
-        <v>226.1</v>
+        <v>226.4</v>
       </c>
       <c r="G11">
-        <v>123.2</v>
+        <v>124.3</v>
       </c>
       <c r="H11">
         <v>122.8</v>
       </c>
       <c r="I11">
-        <v>488.1</v>
+        <v>492.5</v>
       </c>
       <c r="J11">
-        <v>278.39999999999998</v>
+        <v>278.60000000000002</v>
       </c>
       <c r="K11">
         <v>350.3</v>
       </c>
       <c r="L11">
-        <v>315</v>
+        <v>403.5</v>
       </c>
       <c r="M11">
-        <v>180.9</v>
+        <v>181.7</v>
       </c>
       <c r="N11">
-        <v>200.9</v>
+        <v>202.2</v>
       </c>
       <c r="O11">
-        <v>319.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>328.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>25</v>
       </c>
       <c r="B12">
-        <v>423.8</v>
+        <v>430.4</v>
       </c>
       <c r="C12">
-        <v>330.9</v>
+        <v>338.6</v>
       </c>
       <c r="D12">
-        <v>322.39999999999998</v>
+        <v>326.39999999999998</v>
       </c>
       <c r="E12">
-        <v>188.9</v>
+        <v>190.1</v>
       </c>
       <c r="F12">
-        <v>174.4</v>
+        <v>178.2</v>
       </c>
       <c r="G12">
-        <v>100</v>
+        <v>101.2</v>
       </c>
       <c r="H12">
-        <v>85.7</v>
+        <v>86.3</v>
       </c>
       <c r="I12">
-        <v>309.89999999999998</v>
+        <v>305.60000000000002</v>
       </c>
       <c r="J12">
-        <v>218.7</v>
+        <v>220.8</v>
       </c>
       <c r="K12">
-        <v>289.60000000000002</v>
+        <v>292</v>
       </c>
       <c r="L12">
-        <v>269.2</v>
+        <v>342.4</v>
       </c>
       <c r="M12">
-        <v>145.19999999999999</v>
+        <v>146.5</v>
       </c>
       <c r="N12">
-        <v>149.1</v>
+        <v>147.69999999999999</v>
       </c>
       <c r="O12">
-        <v>231.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>238.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1183,7 +1224,7 @@
         <v>61.4</v>
       </c>
       <c r="H13">
-        <v>70.400000000000006</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="I13">
         <v>277.8</v>
@@ -1192,10 +1233,10 @@
         <v>152.5</v>
       </c>
       <c r="K13">
-        <v>249.8</v>
+        <v>249.9</v>
       </c>
       <c r="L13">
-        <v>239.1</v>
+        <v>279.89999999999998</v>
       </c>
       <c r="M13">
         <v>104.3</v>
@@ -1204,10 +1245,10 @@
         <v>122.9</v>
       </c>
       <c r="O13">
-        <v>187.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>190.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1230,7 +1271,7 @@
         <v>52.6</v>
       </c>
       <c r="H14">
-        <v>59.5</v>
+        <v>59.4</v>
       </c>
       <c r="I14">
         <v>226.8</v>
@@ -1242,7 +1283,7 @@
         <v>223.9</v>
       </c>
       <c r="L14">
-        <v>210.3</v>
+        <v>231.6</v>
       </c>
       <c r="M14">
         <v>88.8</v>
@@ -1251,10 +1292,10 @@
         <v>111.3</v>
       </c>
       <c r="O14">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>150.69999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1277,7 +1318,7 @@
         <v>44.6</v>
       </c>
       <c r="H15">
-        <v>51.6</v>
+        <v>51.5</v>
       </c>
       <c r="I15">
         <v>111.9</v>
@@ -1289,7 +1330,7 @@
         <v>183.9</v>
       </c>
       <c r="L15">
-        <v>171.6</v>
+        <v>176</v>
       </c>
       <c r="M15">
         <v>49.4</v>
@@ -1298,10 +1339,10 @@
         <v>87.1</v>
       </c>
       <c r="O15">
-        <v>107.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>108.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1324,7 +1365,7 @@
         <v>23.7</v>
       </c>
       <c r="H16">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="I16">
         <v>111.9</v>
@@ -1336,7 +1377,7 @@
         <v>173.7</v>
       </c>
       <c r="L16">
-        <v>171.6</v>
+        <v>176</v>
       </c>
       <c r="M16">
         <v>32.200000000000003</v>
@@ -1345,7 +1386,7 @@
         <v>83</v>
       </c>
       <c r="O16">
-        <v>93.9</v>
+        <v>94.3</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1356,7 +1397,7 @@
         <v>101.2</v>
       </c>
       <c r="C17">
-        <v>88.3</v>
+        <v>88.5</v>
       </c>
       <c r="D17">
         <v>65.2</v>
@@ -1371,7 +1412,7 @@
         <v>19.5</v>
       </c>
       <c r="H17">
-        <v>45</v>
+        <v>44.9</v>
       </c>
       <c r="I17">
         <v>75.7</v>
@@ -1383,7 +1424,7 @@
         <v>134.69999999999999</v>
       </c>
       <c r="L17">
-        <v>165.4</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="M17">
         <v>30.5</v>
@@ -1392,7 +1433,7 @@
         <v>73.400000000000006</v>
       </c>
       <c r="O17">
-        <v>76.099999999999994</v>
+        <v>75.400000000000006</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1430,7 +1471,7 @@
         <v>98.1</v>
       </c>
       <c r="L18">
-        <v>165.4</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="M18">
         <v>30.5</v>
@@ -1439,7 +1480,7 @@
         <v>73.400000000000006</v>
       </c>
       <c r="O18">
-        <v>71.2</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1">
@@ -1482,7 +1523,7 @@
         <v>98.1</v>
       </c>
       <c r="L20">
-        <v>165.4</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="M20">
         <v>30.5</v>
@@ -1491,7 +1532,7 @@
         <v>73.400000000000006</v>
       </c>
       <c r="O20">
-        <v>71.2</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1529,7 +1570,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="L21">
-        <v>19.8</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M21">
         <v>5.6</v>
@@ -1538,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="O21">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1564,7 +1605,7 @@
         <v>4.3</v>
       </c>
       <c r="H22">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="I22">
         <v>4.5</v>
@@ -1576,7 +1617,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="L22">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="M22">
         <v>2.7</v>
@@ -1585,7 +1626,7 @@
         <v>14.5</v>
       </c>
       <c r="O22">
-        <v>18.399999999999999</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1623,7 +1664,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="L23">
-        <v>8.4</v>
+        <v>14.9</v>
       </c>
       <c r="M23">
         <v>5.0999999999999996</v>
@@ -1632,7 +1673,7 @@
         <v>3.8</v>
       </c>
       <c r="O23">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1658,7 +1699,7 @@
         <v>12.2</v>
       </c>
       <c r="H24">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="I24">
         <v>64.7</v>
@@ -1670,7 +1711,7 @@
         <v>41.8</v>
       </c>
       <c r="L24">
-        <v>64</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="M24">
         <v>17</v>
@@ -1679,7 +1720,7 @@
         <v>48.7</v>
       </c>
       <c r="O24">
-        <v>38.6</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1745,27 +1786,27 @@
       </c>
       <c r="B29">
         <f>B4</f>
-        <v>657.3</v>
+        <v>663.9</v>
       </c>
       <c r="C29">
         <f t="shared" ref="C29:O29" si="0">C4</f>
-        <v>490.2</v>
+        <v>496.3</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>471.8</v>
+        <v>475.8</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>250.7</v>
+        <v>250.4</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>226.1</v>
+        <v>226.4</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
-        <v>123.2</v>
+        <v>124.3</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
@@ -1773,11 +1814,11 @@
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>488.1</v>
+        <v>492.5</v>
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
-        <v>278.39999999999998</v>
+        <v>278.60000000000002</v>
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
@@ -1785,19 +1826,19 @@
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>403.5</v>
       </c>
       <c r="M29">
         <f t="shared" si="0"/>
-        <v>180.9</v>
+        <v>181.7</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
-        <v>200.9</v>
+        <v>202.2</v>
       </c>
       <c r="O29">
         <f t="shared" si="0"/>
-        <v>319.7</v>
+        <v>328.4</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1818,19 +1859,19 @@
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
-        <v>168</v>
+        <v>166.4</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>105.3</v>
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
-        <v>61.3</v>
+        <v>61.9</v>
       </c>
       <c r="H30">
         <f t="shared" si="1"/>
-        <v>57.5</v>
+        <v>57.2</v>
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
@@ -1838,27 +1879,27 @@
       </c>
       <c r="J30">
         <f t="shared" si="1"/>
-        <v>110.9</v>
+        <v>109.8</v>
       </c>
       <c r="K30">
         <f t="shared" si="1"/>
-        <v>127</v>
+        <v>125.6</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>98.7</v>
+        <v>145.5</v>
       </c>
       <c r="M30">
         <f t="shared" si="1"/>
-        <v>80.900000000000006</v>
+        <v>81.3</v>
       </c>
       <c r="N30">
         <f t="shared" si="1"/>
-        <v>78.7</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
-        <v>135.9</v>
+        <v>139.19999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1891,7 +1932,7 @@
       </c>
       <c r="H31">
         <f t="shared" si="1"/>
-        <v>25.9</v>
+        <v>25.2</v>
       </c>
       <c r="I31">
         <f t="shared" si="1"/>
@@ -1907,7 +1948,7 @@
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>123.8</v>
+        <v>173.2</v>
       </c>
       <c r="M31">
         <f t="shared" si="1"/>
@@ -1919,7 +1960,7 @@
       </c>
       <c r="O31">
         <f t="shared" si="1"/>
-        <v>106.8</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1928,59 +1969,59 @@
       </c>
       <c r="B32">
         <f t="shared" si="1"/>
-        <v>16.600000000000001</v>
+        <v>23.3</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>8.1</v>
+        <v>14.1</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
-        <v>-1.7</v>
+        <v>-1.2</v>
       </c>
       <c r="H32">
         <f t="shared" si="1"/>
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="I32">
         <f t="shared" si="1"/>
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="J32">
         <f t="shared" si="1"/>
-        <v>4.4000000000000004</v>
+        <v>5.7</v>
       </c>
       <c r="K32">
         <f t="shared" si="1"/>
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>16.3</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>-3.5</v>
+        <v>-3.1</v>
       </c>
       <c r="N32">
         <f t="shared" si="1"/>
-        <v>7.8</v>
+        <v>9.5</v>
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>4.0999999999999996</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2013,7 +2054,7 @@
       </c>
       <c r="H33">
         <f t="shared" si="1"/>
-        <v>35.700000000000003</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="I33">
         <f t="shared" si="1"/>
@@ -2029,7 +2070,7 @@
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>73.099999999999994</v>
+        <v>55</v>
       </c>
       <c r="M33">
         <f t="shared" si="1"/>
@@ -2041,7 +2082,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
-        <v>69.5</v>
+        <v>68.2</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2116,11 +2157,11 @@
       </c>
       <c r="B36">
         <f>B12-B11</f>
-        <v>-233.49999999999994</v>
+        <v>-233.5</v>
       </c>
       <c r="C36">
         <f t="shared" ref="C36:O36" si="2">C12-C11</f>
-        <v>-159.30000000000001</v>
+        <v>-157.69999999999999</v>
       </c>
       <c r="D36">
         <f t="shared" si="2"/>
@@ -2128,47 +2169,47 @@
       </c>
       <c r="E36">
         <f t="shared" si="2"/>
-        <v>-61.799999999999983</v>
+        <v>-60.300000000000011</v>
       </c>
       <c r="F36">
         <f t="shared" si="2"/>
-        <v>-51.699999999999989</v>
+        <v>-48.200000000000017</v>
       </c>
       <c r="G36">
         <f t="shared" si="2"/>
-        <v>-23.200000000000003</v>
+        <v>-23.099999999999994</v>
       </c>
       <c r="H36">
         <f t="shared" si="2"/>
-        <v>-37.099999999999994</v>
+        <v>-36.5</v>
       </c>
       <c r="I36">
         <f t="shared" si="2"/>
-        <v>-178.20000000000005</v>
+        <v>-186.89999999999998</v>
       </c>
       <c r="J36">
         <f t="shared" si="2"/>
-        <v>-59.699999999999989</v>
+        <v>-57.800000000000011</v>
       </c>
       <c r="K36">
         <f t="shared" si="2"/>
-        <v>-60.699999999999989</v>
+        <v>-58.300000000000011</v>
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
-        <v>-45.800000000000011</v>
+        <v>-61.100000000000023</v>
       </c>
       <c r="M36">
         <f t="shared" si="2"/>
-        <v>-35.700000000000017</v>
+        <v>-35.199999999999989</v>
       </c>
       <c r="N36">
         <f t="shared" si="2"/>
-        <v>-51.800000000000011</v>
+        <v>-54.5</v>
       </c>
       <c r="O36">
         <f t="shared" si="2"/>
-        <v>-88.299999999999983</v>
+        <v>-89.499999999999972</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2177,59 +2218,59 @@
       </c>
       <c r="B37">
         <f t="shared" ref="B37:O42" si="3">B13-B12</f>
-        <v>-33.400000000000034</v>
+        <v>-40</v>
       </c>
       <c r="C37">
         <f t="shared" si="3"/>
-        <v>-48.299999999999955</v>
+        <v>-56</v>
       </c>
       <c r="D37">
         <f t="shared" si="3"/>
-        <v>-53.299999999999955</v>
+        <v>-57.299999999999955</v>
       </c>
       <c r="E37">
         <f t="shared" si="3"/>
-        <v>-97.2</v>
+        <v>-98.399999999999991</v>
       </c>
       <c r="F37">
         <f t="shared" si="3"/>
-        <v>-54.2</v>
+        <v>-57.999999999999986</v>
       </c>
       <c r="G37">
         <f t="shared" si="3"/>
-        <v>-38.6</v>
+        <v>-39.800000000000004</v>
       </c>
       <c r="H37">
         <f t="shared" si="3"/>
-        <v>-15.299999999999997</v>
+        <v>-16.200000000000003</v>
       </c>
       <c r="I37">
         <f t="shared" si="3"/>
-        <v>-32.099999999999966</v>
+        <v>-27.800000000000011</v>
       </c>
       <c r="J37">
         <f t="shared" si="3"/>
-        <v>-66.199999999999989</v>
+        <v>-68.300000000000011</v>
       </c>
       <c r="K37">
         <f t="shared" si="3"/>
-        <v>-39.800000000000011</v>
+        <v>-42.099999999999994</v>
       </c>
       <c r="L37">
         <f t="shared" si="3"/>
-        <v>-30.099999999999994</v>
+        <v>-62.5</v>
       </c>
       <c r="M37">
         <f t="shared" si="3"/>
-        <v>-40.899999999999991</v>
+        <v>-42.2</v>
       </c>
       <c r="N37">
         <f t="shared" si="3"/>
-        <v>-26.199999999999989</v>
+        <v>-24.799999999999983</v>
       </c>
       <c r="O37">
         <f t="shared" si="3"/>
-        <v>-44.300000000000011</v>
+        <v>-48.700000000000017</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2262,7 +2303,7 @@
       </c>
       <c r="H38">
         <f t="shared" si="3"/>
-        <v>-10.900000000000006</v>
+        <v>-10.699999999999996</v>
       </c>
       <c r="I38">
         <f t="shared" si="3"/>
@@ -2274,11 +2315,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="3"/>
-        <v>-25.900000000000006</v>
+        <v>-26</v>
       </c>
       <c r="L38">
         <f t="shared" si="3"/>
-        <v>-28.799999999999983</v>
+        <v>-48.299999999999983</v>
       </c>
       <c r="M38">
         <f t="shared" si="3"/>
@@ -2290,7 +2331,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="3"/>
-        <v>-38.099999999999994</v>
+        <v>-39.5</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2339,7 +2380,7 @@
       </c>
       <c r="L39">
         <f t="shared" si="3"/>
-        <v>-38.700000000000017</v>
+        <v>-55.599999999999994</v>
       </c>
       <c r="M39">
         <f t="shared" si="3"/>
@@ -2351,7 +2392,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="3"/>
-        <v>-41.3</v>
+        <v>-42.599999999999994</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2384,7 +2425,7 @@
       </c>
       <c r="H40">
         <f t="shared" si="3"/>
-        <v>-3.8000000000000043</v>
+        <v>-3.7999999999999972</v>
       </c>
       <c r="I40">
         <f t="shared" si="3"/>
@@ -2425,7 +2466,7 @@
       </c>
       <c r="C41">
         <f t="shared" si="3"/>
-        <v>-35</v>
+        <v>-34.799999999999997</v>
       </c>
       <c r="D41">
         <f t="shared" si="3"/>
@@ -2445,7 +2486,7 @@
       </c>
       <c r="H41">
         <f t="shared" si="3"/>
-        <v>-2.7999999999999972</v>
+        <v>-2.8000000000000043</v>
       </c>
       <c r="I41">
         <f t="shared" si="3"/>
@@ -2461,7 +2502,7 @@
       </c>
       <c r="L41">
         <f t="shared" si="3"/>
-        <v>-6.1999999999999886</v>
+        <v>-19.699999999999989</v>
       </c>
       <c r="M41">
         <f t="shared" si="3"/>
@@ -2473,7 +2514,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="3"/>
-        <v>-17.800000000000011</v>
+        <v>-18.899999999999991</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2486,7 +2527,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="3"/>
-        <v>0.20000000000000284</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <f t="shared" si="3"/>
@@ -2506,7 +2547,7 @@
       </c>
       <c r="H42">
         <f t="shared" si="3"/>
-        <v>-27.3</v>
+        <v>-27.2</v>
       </c>
       <c r="I42">
         <f t="shared" si="3"/>
@@ -2534,7 +2575,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="3"/>
-        <v>-4.8999999999999915</v>
+        <v>-4.9000000000000057</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2588,7 +2629,7 @@
       </c>
       <c r="L44">
         <f t="shared" si="4"/>
-        <v>165.4</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="M44">
         <f t="shared" si="4"/>
@@ -2600,7 +2641,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="4"/>
-        <v>71.2</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2649,7 +2690,7 @@
       </c>
       <c r="L45">
         <f t="shared" si="5"/>
-        <v>19.8</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M45">
         <f t="shared" si="5"/>
@@ -2661,7 +2702,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="5"/>
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2694,7 +2735,7 @@
       </c>
       <c r="H46">
         <f t="shared" si="5"/>
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="I46">
         <f t="shared" si="5"/>
@@ -2710,7 +2751,7 @@
       </c>
       <c r="L46">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="M46">
         <f t="shared" si="5"/>
@@ -2722,7 +2763,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="5"/>
-        <v>18.399999999999999</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2771,7 +2812,7 @@
       </c>
       <c r="L47">
         <f t="shared" si="5"/>
-        <v>8.4</v>
+        <v>14.9</v>
       </c>
       <c r="M47">
         <f t="shared" si="5"/>
@@ -2783,7 +2824,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="5"/>
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2816,7 +2857,7 @@
       </c>
       <c r="H48">
         <f t="shared" si="5"/>
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="I48">
         <f t="shared" si="5"/>
@@ -2832,7 +2873,7 @@
       </c>
       <c r="L48">
         <f t="shared" si="5"/>
-        <v>64</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="M48">
         <f t="shared" si="5"/>
@@ -2844,7 +2885,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="5"/>
-        <v>38.6</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -2923,8 +2964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="T70" sqref="T70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2932,12 +2973,12 @@
     <col min="1" max="1" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1">
+    <row r="1" spans="1:18" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -2981,7 +3022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3025,59 +3066,63 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5">
-        <v>657.3</v>
+        <v>663.9</v>
       </c>
       <c r="C5">
-        <v>490.2</v>
+        <v>496.3</v>
       </c>
       <c r="D5">
-        <v>471.8</v>
+        <v>475.8</v>
       </c>
       <c r="E5">
-        <v>250.7</v>
+        <v>250.4</v>
       </c>
       <c r="F5">
-        <v>226.1</v>
+        <v>226.4</v>
       </c>
       <c r="G5">
-        <v>123.2</v>
+        <v>124.3</v>
       </c>
       <c r="H5">
         <v>122.8</v>
       </c>
       <c r="I5">
-        <v>488.1</v>
+        <v>492.5</v>
       </c>
       <c r="J5">
-        <v>278.39999999999998</v>
+        <v>278.60000000000002</v>
       </c>
       <c r="K5">
         <v>350.3</v>
       </c>
       <c r="L5">
-        <v>315</v>
+        <v>403.5</v>
       </c>
       <c r="M5">
-        <v>180.9</v>
+        <v>181.7</v>
       </c>
       <c r="N5">
-        <v>200.9</v>
+        <v>202.2</v>
       </c>
       <c r="O5">
-        <v>319.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>328.4</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -3091,40 +3136,40 @@
         <v>202.2</v>
       </c>
       <c r="E6">
-        <v>168</v>
+        <v>166.4</v>
       </c>
       <c r="F6">
-        <v>106</v>
+        <v>105.3</v>
       </c>
       <c r="G6">
-        <v>61.3</v>
+        <v>61.9</v>
       </c>
       <c r="H6">
-        <v>57.5</v>
+        <v>57.2</v>
       </c>
       <c r="I6">
         <v>205.5</v>
       </c>
       <c r="J6">
-        <v>110.9</v>
+        <v>109.8</v>
       </c>
       <c r="K6">
-        <v>127</v>
+        <v>125.6</v>
       </c>
       <c r="L6">
-        <v>98.7</v>
+        <v>145.5</v>
       </c>
       <c r="M6">
-        <v>80.900000000000006</v>
+        <v>81.3</v>
       </c>
       <c r="N6">
-        <v>78.7</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="O6">
-        <v>135.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>139.19999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3147,7 +3192,7 @@
         <v>28.5</v>
       </c>
       <c r="H7">
-        <v>25.9</v>
+        <v>25.2</v>
       </c>
       <c r="I7">
         <v>190.4</v>
@@ -3159,7 +3204,7 @@
         <v>91.3</v>
       </c>
       <c r="L7">
-        <v>123.8</v>
+        <v>173.2</v>
       </c>
       <c r="M7">
         <v>68.5</v>
@@ -3168,57 +3213,57 @@
         <v>43.5</v>
       </c>
       <c r="O7">
-        <v>106.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8">
-        <v>16.600000000000001</v>
+        <v>23.3</v>
       </c>
       <c r="C8">
-        <v>8.1</v>
+        <v>14.1</v>
       </c>
       <c r="D8">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E8">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="F8">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="G8">
-        <v>-1.7</v>
+        <v>-1.2</v>
       </c>
       <c r="H8">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="I8">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="J8">
-        <v>4.4000000000000004</v>
+        <v>5.7</v>
       </c>
       <c r="K8">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="L8">
-        <v>6</v>
+        <v>16.3</v>
       </c>
       <c r="M8">
-        <v>-3.5</v>
+        <v>-3.1</v>
       </c>
       <c r="N8">
-        <v>7.8</v>
+        <v>9.5</v>
       </c>
       <c r="O8">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -3241,7 +3286,7 @@
         <v>35.1</v>
       </c>
       <c r="H9">
-        <v>35.700000000000003</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="I9">
         <v>88.7</v>
@@ -3253,7 +3298,7 @@
         <v>128.19999999999999</v>
       </c>
       <c r="L9">
-        <v>86.6</v>
+        <v>68.5</v>
       </c>
       <c r="M9">
         <v>35</v>
@@ -3262,62 +3307,62 @@
         <v>70.900000000000006</v>
       </c>
       <c r="O9">
-        <v>72.900000000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11">
-        <v>423.8</v>
+        <v>430.4</v>
       </c>
       <c r="C11">
-        <v>330.9</v>
+        <v>338.6</v>
       </c>
       <c r="D11">
-        <v>322.39999999999998</v>
+        <v>326.39999999999998</v>
       </c>
       <c r="E11">
-        <v>188.9</v>
+        <v>190.1</v>
       </c>
       <c r="F11">
-        <v>174.4</v>
+        <v>178.2</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>101.2</v>
       </c>
       <c r="H11">
-        <v>85.7</v>
+        <v>86.3</v>
       </c>
       <c r="I11">
-        <v>309.89999999999998</v>
+        <v>305.60000000000002</v>
       </c>
       <c r="J11">
-        <v>218.7</v>
+        <v>220.8</v>
       </c>
       <c r="K11">
-        <v>289.60000000000002</v>
+        <v>292</v>
       </c>
       <c r="L11">
-        <v>269.2</v>
+        <v>342.4</v>
       </c>
       <c r="M11">
-        <v>145.19999999999999</v>
+        <v>146.5</v>
       </c>
       <c r="N11">
-        <v>149.1</v>
+        <v>147.69999999999999</v>
       </c>
       <c r="O11">
-        <v>231.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>238.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3325,46 +3370,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>23.1</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>31.5</v>
       </c>
       <c r="E12">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="F12">
-        <v>47.9</v>
+        <v>51.4</v>
       </c>
       <c r="G12">
-        <v>35.5</v>
+        <v>36.4</v>
       </c>
       <c r="H12">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="I12">
-        <v>9.4</v>
+        <v>0.7</v>
       </c>
       <c r="J12">
-        <v>44.1</v>
+        <v>45.1</v>
       </c>
       <c r="K12">
-        <v>58.7</v>
+        <v>60</v>
       </c>
       <c r="L12">
-        <v>46.5</v>
+        <v>75.8</v>
       </c>
       <c r="M12">
-        <v>42.1</v>
+        <v>43.1</v>
       </c>
       <c r="N12">
-        <v>20.5</v>
+        <v>17</v>
       </c>
       <c r="O12">
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3387,7 +3432,7 @@
         <v>28.5</v>
       </c>
       <c r="H13">
-        <v>25.9</v>
+        <v>25.2</v>
       </c>
       <c r="I13">
         <v>190.4</v>
@@ -3399,7 +3444,7 @@
         <v>91.3</v>
       </c>
       <c r="L13">
-        <v>123.8</v>
+        <v>173.2</v>
       </c>
       <c r="M13">
         <v>68.5</v>
@@ -3408,57 +3453,57 @@
         <v>43.5</v>
       </c>
       <c r="O13">
-        <v>106.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14">
-        <v>50</v>
+        <v>56.6</v>
       </c>
       <c r="C14">
-        <v>30.6</v>
+        <v>36.5</v>
       </c>
       <c r="D14">
-        <v>21.9</v>
+        <v>25.8</v>
       </c>
       <c r="E14">
-        <v>8.6999999999999993</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F14">
-        <v>8.1</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G14">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H14">
-        <v>8.3000000000000007</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I14">
-        <v>24.8</v>
+        <v>29.3</v>
       </c>
       <c r="J14">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="K14">
-        <v>11.4</v>
+        <v>12.5</v>
       </c>
       <c r="L14">
-        <v>12.4</v>
+        <v>24.9</v>
       </c>
       <c r="M14">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="N14">
-        <v>14.8</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="O14">
-        <v>15.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -3481,7 +3526,7 @@
         <v>35.1</v>
       </c>
       <c r="H15">
-        <v>35.700000000000003</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="I15">
         <v>85.3</v>
@@ -3493,7 +3538,7 @@
         <v>128.19999999999999</v>
       </c>
       <c r="L15">
-        <v>86.5</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="M15">
         <v>35</v>
@@ -3502,10 +3547,10 @@
         <v>70.3</v>
       </c>
       <c r="O15">
-        <v>72.400000000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>71.099999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -3533,7 +3578,7 @@
         <v>61.4</v>
       </c>
       <c r="H17">
-        <v>70.400000000000006</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="I17">
         <v>277.8</v>
@@ -3542,10 +3587,10 @@
         <v>152.5</v>
       </c>
       <c r="K17">
-        <v>249.8</v>
+        <v>249.9</v>
       </c>
       <c r="L17">
-        <v>239.1</v>
+        <v>279.89999999999998</v>
       </c>
       <c r="M17">
         <v>104.3</v>
@@ -3554,7 +3599,7 @@
         <v>122.9</v>
       </c>
       <c r="O17">
-        <v>187.1</v>
+        <v>190.2</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -3592,7 +3637,7 @@
         <v>22.5</v>
       </c>
       <c r="L18">
-        <v>19.8</v>
+        <v>20.5</v>
       </c>
       <c r="M18">
         <v>6</v>
@@ -3627,7 +3672,7 @@
         <v>28.5</v>
       </c>
       <c r="H19">
-        <v>25.9</v>
+        <v>25.2</v>
       </c>
       <c r="I19">
         <v>190.4</v>
@@ -3639,7 +3684,7 @@
         <v>91.3</v>
       </c>
       <c r="L19">
-        <v>123.8</v>
+        <v>173.2</v>
       </c>
       <c r="M19">
         <v>68.5</v>
@@ -3648,7 +3693,7 @@
         <v>43.5</v>
       </c>
       <c r="O19">
-        <v>106.8</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -3674,7 +3719,7 @@
         <v>-2.1</v>
       </c>
       <c r="H20">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I20">
         <v>2.4</v>
@@ -3683,10 +3728,10 @@
         <v>3</v>
       </c>
       <c r="K20">
-        <v>8</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="L20">
-        <v>9</v>
+        <v>17.8</v>
       </c>
       <c r="M20">
         <v>-4.4000000000000004</v>
@@ -3695,7 +3740,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="O20">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -3721,7 +3766,7 @@
         <v>35.1</v>
       </c>
       <c r="H21">
-        <v>35.700000000000003</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="I21">
         <v>85.3</v>
@@ -3733,7 +3778,7 @@
         <v>127.9</v>
       </c>
       <c r="L21">
-        <v>86.5</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="M21">
         <v>34.200000000000003</v>
@@ -3742,7 +3787,7 @@
         <v>70.3</v>
       </c>
       <c r="O21">
-        <v>72.400000000000006</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -3773,7 +3818,7 @@
         <v>52.6</v>
       </c>
       <c r="H23">
-        <v>59.5</v>
+        <v>59.4</v>
       </c>
       <c r="I23">
         <v>226.8</v>
@@ -3785,7 +3830,7 @@
         <v>223.9</v>
       </c>
       <c r="L23">
-        <v>210.3</v>
+        <v>231.6</v>
       </c>
       <c r="M23">
         <v>88.8</v>
@@ -3794,7 +3839,7 @@
         <v>111.3</v>
       </c>
       <c r="O23">
-        <v>149</v>
+        <v>150.69999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -3832,7 +3877,7 @@
         <v>14.1</v>
       </c>
       <c r="L24">
-        <v>19.8</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M24">
         <v>4.8</v>
@@ -3867,7 +3912,7 @@
         <v>20</v>
       </c>
       <c r="H25">
-        <v>15.7</v>
+        <v>15.2</v>
       </c>
       <c r="I25">
         <v>139.30000000000001</v>
@@ -3879,7 +3924,7 @@
         <v>74.2</v>
       </c>
       <c r="L25">
-        <v>95.5</v>
+        <v>125.4</v>
       </c>
       <c r="M25">
         <v>54.1</v>
@@ -3888,7 +3933,7 @@
         <v>34.700000000000003</v>
       </c>
       <c r="O25">
-        <v>70.400000000000006</v>
+        <v>72.599999999999994</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -3914,7 +3959,7 @@
         <v>-2.4</v>
       </c>
       <c r="H26">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="I26">
         <v>2.4</v>
@@ -3926,7 +3971,7 @@
         <v>8.1</v>
       </c>
       <c r="L26">
-        <v>8.9</v>
+        <v>17.7</v>
       </c>
       <c r="M26">
         <v>-4.3</v>
@@ -3935,7 +3980,7 @@
         <v>7.2</v>
       </c>
       <c r="O26">
-        <v>4.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -3961,7 +4006,7 @@
         <v>35</v>
       </c>
       <c r="H27">
-        <v>35.700000000000003</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="I27">
         <v>85.3</v>
@@ -3973,7 +4018,7 @@
         <v>127.6</v>
       </c>
       <c r="L27">
-        <v>86.2</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="M27">
         <v>34.200000000000003</v>
@@ -3982,7 +4027,7 @@
         <v>68.5</v>
       </c>
       <c r="O27">
-        <v>71.7</v>
+        <v>70.400000000000006</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -4013,7 +4058,7 @@
         <v>44.6</v>
       </c>
       <c r="H29">
-        <v>51.6</v>
+        <v>51.5</v>
       </c>
       <c r="I29">
         <v>111.9</v>
@@ -4025,7 +4070,7 @@
         <v>183.9</v>
       </c>
       <c r="L29">
-        <v>171.6</v>
+        <v>176</v>
       </c>
       <c r="M29">
         <v>49.4</v>
@@ -4034,7 +4079,7 @@
         <v>87.1</v>
       </c>
       <c r="O29">
-        <v>107.7</v>
+        <v>108.1</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -4072,7 +4117,7 @@
         <v>22.6</v>
       </c>
       <c r="L30">
-        <v>19.8</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M30">
         <v>6.8</v>
@@ -4081,7 +4126,7 @@
         <v>1.6</v>
       </c>
       <c r="O30">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -4107,7 +4152,7 @@
         <v>4.7</v>
       </c>
       <c r="H31">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="I31">
         <v>14.4</v>
@@ -4119,7 +4164,7 @@
         <v>19.2</v>
       </c>
       <c r="L31">
-        <v>60</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="M31">
         <v>2.7</v>
@@ -4128,7 +4173,7 @@
         <v>14.5</v>
       </c>
       <c r="O31">
-        <v>19.600000000000001</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -4166,7 +4211,7 @@
         <v>14.5</v>
       </c>
       <c r="L32">
-        <v>9.9</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="M32">
         <v>5.6</v>
@@ -4175,7 +4220,7 @@
         <v>5.9</v>
       </c>
       <c r="O32">
-        <v>10</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -4201,7 +4246,7 @@
         <v>35.1</v>
       </c>
       <c r="H33">
-        <v>35.700000000000003</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="I33">
         <v>85.3</v>
@@ -4213,7 +4258,7 @@
         <v>127.6</v>
       </c>
       <c r="L33">
-        <v>81.900000000000006</v>
+        <v>63.8</v>
       </c>
       <c r="M33">
         <v>34.200000000000003</v>
@@ -4222,7 +4267,7 @@
         <v>65.099999999999994</v>
       </c>
       <c r="O33">
-        <v>70.900000000000006</v>
+        <v>69.599999999999994</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -4253,7 +4298,7 @@
         <v>23.7</v>
       </c>
       <c r="H35">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="I35">
         <v>111.9</v>
@@ -4265,7 +4310,7 @@
         <v>173.7</v>
       </c>
       <c r="L35">
-        <v>171.6</v>
+        <v>176</v>
       </c>
       <c r="M35">
         <v>32.200000000000003</v>
@@ -4274,7 +4319,7 @@
         <v>83</v>
       </c>
       <c r="O35">
-        <v>93.9</v>
+        <v>94.3</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -4312,7 +4357,7 @@
         <v>22.6</v>
       </c>
       <c r="L36">
-        <v>19.8</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M36">
         <v>6.8</v>
@@ -4347,7 +4392,7 @@
         <v>4.3</v>
       </c>
       <c r="H37">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="I37">
         <v>14.4</v>
@@ -4359,7 +4404,7 @@
         <v>19.100000000000001</v>
       </c>
       <c r="L37">
-        <v>60</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="M37">
         <v>2.7</v>
@@ -4368,7 +4413,7 @@
         <v>14.5</v>
       </c>
       <c r="O37">
-        <v>19.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -4406,7 +4451,7 @@
         <v>14.6</v>
       </c>
       <c r="L38">
-        <v>9.9</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="M38">
         <v>5.6</v>
@@ -4415,7 +4460,7 @@
         <v>5.8</v>
       </c>
       <c r="O38">
-        <v>10.1</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -4441,7 +4486,7 @@
         <v>13.8</v>
       </c>
       <c r="H39">
-        <v>32</v>
+        <v>32.5</v>
       </c>
       <c r="I39">
         <v>85.2</v>
@@ -4453,7 +4498,7 @@
         <v>117.5</v>
       </c>
       <c r="L39">
-        <v>81.900000000000006</v>
+        <v>63.8</v>
       </c>
       <c r="M39">
         <v>17</v>
@@ -4462,7 +4507,7 @@
         <v>61.1</v>
       </c>
       <c r="O39">
-        <v>57.3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -4478,7 +4523,7 @@
         <v>101.2</v>
       </c>
       <c r="C41">
-        <v>88.3</v>
+        <v>88.5</v>
       </c>
       <c r="D41">
         <v>65.2</v>
@@ -4493,7 +4538,7 @@
         <v>19.5</v>
       </c>
       <c r="H41">
-        <v>45</v>
+        <v>44.9</v>
       </c>
       <c r="I41">
         <v>75.7</v>
@@ -4505,7 +4550,7 @@
         <v>134.69999999999999</v>
       </c>
       <c r="L41">
-        <v>165.4</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="M41">
         <v>30.5</v>
@@ -4514,7 +4559,7 @@
         <v>73.400000000000006</v>
       </c>
       <c r="O41">
-        <v>76.099999999999994</v>
+        <v>75.400000000000006</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -4552,7 +4597,7 @@
         <v>19.100000000000001</v>
       </c>
       <c r="L42">
-        <v>19.8</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M42">
         <v>5.6</v>
@@ -4587,7 +4632,7 @@
         <v>4.3</v>
       </c>
       <c r="H43">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="I43">
         <v>4.5</v>
@@ -4599,7 +4644,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="L43">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="M43">
         <v>2.7</v>
@@ -4608,7 +4653,7 @@
         <v>14.5</v>
       </c>
       <c r="O43">
-        <v>18.399999999999999</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -4634,7 +4679,7 @@
         <v>0.1</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I44">
         <v>6.8</v>
@@ -4646,7 +4691,7 @@
         <v>10.5</v>
       </c>
       <c r="L44">
-        <v>8.4</v>
+        <v>14.9</v>
       </c>
       <c r="M44">
         <v>5.0999999999999996</v>
@@ -4655,7 +4700,7 @@
         <v>3.8</v>
       </c>
       <c r="O44">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -4666,7 +4711,7 @@
         <v>90.2</v>
       </c>
       <c r="C45">
-        <v>52.4</v>
+        <v>52.5</v>
       </c>
       <c r="D45">
         <v>26.4</v>
@@ -4681,7 +4726,7 @@
         <v>12.2</v>
       </c>
       <c r="H45">
-        <v>28.1</v>
+        <v>28.6</v>
       </c>
       <c r="I45">
         <v>64.599999999999994</v>
@@ -4693,7 +4738,7 @@
         <v>87.6</v>
       </c>
       <c r="L45">
-        <v>77.2</v>
+        <v>49</v>
       </c>
       <c r="M45">
         <v>17</v>
@@ -4702,7 +4747,7 @@
         <v>53.1</v>
       </c>
       <c r="O45">
-        <v>44.9</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -4745,7 +4790,7 @@
         <v>98.1</v>
       </c>
       <c r="L47">
-        <v>165.4</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="M47">
         <v>30.5</v>
@@ -4754,7 +4799,7 @@
         <v>73.400000000000006</v>
       </c>
       <c r="O47">
-        <v>71.2</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -4792,7 +4837,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="L48">
-        <v>19.8</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M48">
         <v>5.6</v>
@@ -4801,7 +4846,7 @@
         <v>2</v>
       </c>
       <c r="O48">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -4827,7 +4872,7 @@
         <v>4.3</v>
       </c>
       <c r="H49">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="I49">
         <v>4.5</v>
@@ -4839,7 +4884,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="L49">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="M49">
         <v>2.7</v>
@@ -4848,7 +4893,7 @@
         <v>14.5</v>
       </c>
       <c r="O49">
-        <v>18.399999999999999</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -4886,7 +4931,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="L50">
-        <v>8.4</v>
+        <v>14.9</v>
       </c>
       <c r="M50">
         <v>5.0999999999999996</v>
@@ -4895,7 +4940,7 @@
         <v>3.8</v>
       </c>
       <c r="O50">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -4921,7 +4966,7 @@
         <v>12.2</v>
       </c>
       <c r="H51">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="I51">
         <v>64.599999999999994</v>
@@ -4933,7 +4978,7 @@
         <v>66.400000000000006</v>
       </c>
       <c r="L51">
-        <v>77.2</v>
+        <v>49</v>
       </c>
       <c r="M51">
         <v>17</v>
@@ -4942,7 +4987,7 @@
         <v>53.1</v>
       </c>
       <c r="O51">
-        <v>41.9</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="3" customFormat="1">
@@ -4976,23 +5021,23 @@
       </c>
       <c r="B56">
         <f t="shared" ref="B56:B63" ca="1" si="0">OFFSET($O$5,0+$T56,0)</f>
-        <v>319.7</v>
+        <v>328.4</v>
       </c>
       <c r="C56">
         <f t="shared" ref="C56:C63" ca="1" si="1">OFFSET($O$6,0+$T56,0)</f>
-        <v>135.9</v>
+        <v>139.19999999999999</v>
       </c>
       <c r="D56">
         <f t="shared" ref="D56:D63" ca="1" si="2">OFFSET($O$7,0+$T56,0)</f>
-        <v>106.8</v>
+        <v>110.5</v>
       </c>
       <c r="E56">
         <f t="shared" ref="E56:E63" ca="1" si="3">OFFSET($O$8,0+$T56,0)</f>
-        <v>4.0999999999999996</v>
+        <v>7.2</v>
       </c>
       <c r="F56">
         <f t="shared" ref="F56:F63" ca="1" si="4">OFFSET($O$9,0+$T56,0)</f>
-        <v>72.900000000000006</v>
+        <v>71.5</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -5004,23 +5049,23 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="0"/>
-        <v>231.4</v>
+        <v>238.9</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="1"/>
-        <v>36.5</v>
+        <v>38.6</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="2"/>
-        <v>106.8</v>
+        <v>110.5</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="3"/>
-        <v>15.6</v>
+        <v>18.7</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="4"/>
-        <v>72.400000000000006</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="T57">
         <v>6</v>
@@ -5032,7 +5077,7 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="0"/>
-        <v>187.1</v>
+        <v>190.2</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="1"/>
@@ -5040,15 +5085,15 @@
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="2"/>
-        <v>106.8</v>
+        <v>110.5</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="4"/>
-        <v>72.400000000000006</v>
+        <v>71</v>
       </c>
       <c r="T58">
         <v>12</v>
@@ -5060,7 +5105,7 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="0"/>
-        <v>149</v>
+        <v>150.69999999999999</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="1"/>
@@ -5068,15 +5113,15 @@
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="2"/>
-        <v>70.400000000000006</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="3"/>
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="4"/>
-        <v>71.7</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="T59">
         <v>18</v>
@@ -5088,23 +5133,23 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="0"/>
-        <v>107.7</v>
+        <v>108.1</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="2"/>
-        <v>19.600000000000001</v>
+        <v>20.5</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>10.7</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="4"/>
-        <v>70.900000000000006</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="T60">
         <v>24</v>
@@ -5116,7 +5161,7 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="0"/>
-        <v>93.9</v>
+        <v>94.3</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
@@ -5124,15 +5169,15 @@
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="2"/>
-        <v>19.5</v>
+        <v>20.5</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="3"/>
-        <v>10.1</v>
+        <v>10.9</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="4"/>
-        <v>57.3</v>
+        <v>56</v>
       </c>
       <c r="T61">
         <v>30</v>
@@ -5144,7 +5189,7 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="0"/>
-        <v>76.099999999999994</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
@@ -5152,15 +5197,15 @@
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="2"/>
-        <v>18.399999999999999</v>
+        <v>19.3</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="3"/>
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="4"/>
-        <v>44.9</v>
+        <v>42.8</v>
       </c>
       <c r="T62">
         <v>36</v>
@@ -5172,23 +5217,23 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="0"/>
-        <v>71.2</v>
+        <v>70.5</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="2"/>
-        <v>18.399999999999999</v>
+        <v>19.3</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="3"/>
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="4"/>
-        <v>41.9</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="T63">
         <v>42</v>
@@ -5241,27 +5286,27 @@
       </c>
       <c r="B67">
         <f ca="1">OFFSET(B$5,0+$T56,0)</f>
-        <v>657.3</v>
+        <v>663.9</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:N67" ca="1" si="5">OFFSET(C$5,0+$T56,0)</f>
-        <v>490.2</v>
+        <v>496.3</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="5"/>
-        <v>471.8</v>
+        <v>475.8</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="5"/>
-        <v>250.7</v>
+        <v>250.4</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="5"/>
-        <v>226.1</v>
+        <v>226.4</v>
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="5"/>
-        <v>123.2</v>
+        <v>124.3</v>
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="5"/>
@@ -5269,11 +5314,11 @@
       </c>
       <c r="I67">
         <f t="shared" ca="1" si="5"/>
-        <v>488.1</v>
+        <v>492.5</v>
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="5"/>
-        <v>278.39999999999998</v>
+        <v>278.60000000000002</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="5"/>
@@ -5281,15 +5326,15 @@
       </c>
       <c r="L67">
         <f t="shared" ca="1" si="5"/>
-        <v>315</v>
+        <v>403.5</v>
       </c>
       <c r="M67">
         <f t="shared" ca="1" si="5"/>
-        <v>180.9</v>
+        <v>181.7</v>
       </c>
       <c r="N67">
         <f t="shared" ca="1" si="5"/>
-        <v>200.9</v>
+        <v>202.2</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -5298,55 +5343,55 @@
       </c>
       <c r="B68">
         <f t="shared" ref="B68:N74" ca="1" si="6">OFFSET(B$5,0+$T57,0)</f>
-        <v>423.8</v>
+        <v>430.4</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="6"/>
-        <v>330.9</v>
+        <v>338.6</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="6"/>
-        <v>322.39999999999998</v>
+        <v>326.39999999999998</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="6"/>
-        <v>188.9</v>
+        <v>190.1</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="6"/>
-        <v>174.4</v>
+        <v>178.2</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>101.2</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="6"/>
-        <v>85.7</v>
+        <v>86.3</v>
       </c>
       <c r="I68">
         <f t="shared" ca="1" si="6"/>
-        <v>309.89999999999998</v>
+        <v>305.60000000000002</v>
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="6"/>
-        <v>218.7</v>
+        <v>220.8</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="6"/>
-        <v>289.60000000000002</v>
+        <v>292</v>
       </c>
       <c r="L68">
         <f t="shared" ca="1" si="6"/>
-        <v>269.2</v>
+        <v>342.4</v>
       </c>
       <c r="M68">
         <f t="shared" ca="1" si="6"/>
-        <v>145.19999999999999</v>
+        <v>146.5</v>
       </c>
       <c r="N68">
         <f t="shared" ca="1" si="6"/>
-        <v>149.1</v>
+        <v>147.69999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -5379,7 +5424,7 @@
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="6"/>
-        <v>70.400000000000006</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="6"/>
@@ -5391,11 +5436,11 @@
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="6"/>
-        <v>249.8</v>
+        <v>249.9</v>
       </c>
       <c r="L69">
         <f t="shared" ca="1" si="6"/>
-        <v>239.1</v>
+        <v>279.89999999999998</v>
       </c>
       <c r="M69">
         <f t="shared" ca="1" si="6"/>
@@ -5436,7 +5481,7 @@
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="6"/>
-        <v>59.5</v>
+        <v>59.4</v>
       </c>
       <c r="I70">
         <f t="shared" ca="1" si="6"/>
@@ -5452,7 +5497,7 @@
       </c>
       <c r="L70">
         <f t="shared" ca="1" si="6"/>
-        <v>210.3</v>
+        <v>231.6</v>
       </c>
       <c r="M70">
         <f t="shared" ca="1" si="6"/>
@@ -5493,7 +5538,7 @@
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="6"/>
-        <v>51.6</v>
+        <v>51.5</v>
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="6"/>
@@ -5509,7 +5554,7 @@
       </c>
       <c r="L71">
         <f t="shared" ca="1" si="6"/>
-        <v>171.6</v>
+        <v>176</v>
       </c>
       <c r="M71">
         <f t="shared" ca="1" si="6"/>
@@ -5550,7 +5595,7 @@
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="6"/>
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="I72">
         <f t="shared" ca="1" si="6"/>
@@ -5566,7 +5611,7 @@
       </c>
       <c r="L72">
         <f t="shared" ca="1" si="6"/>
-        <v>171.6</v>
+        <v>176</v>
       </c>
       <c r="M72">
         <f t="shared" ca="1" si="6"/>
@@ -5587,7 +5632,7 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="6"/>
-        <v>88.3</v>
+        <v>88.5</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="6"/>
@@ -5607,7 +5652,7 @@
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="6"/>
-        <v>45</v>
+        <v>44.9</v>
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="6"/>
@@ -5623,7 +5668,7 @@
       </c>
       <c r="L73">
         <f t="shared" ca="1" si="6"/>
-        <v>165.4</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="M73">
         <f t="shared" ca="1" si="6"/>
@@ -5680,7 +5725,7 @@
       </c>
       <c r="L74">
         <f t="shared" ca="1" si="6"/>
-        <v>165.4</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="M74">
         <f t="shared" ca="1" si="6"/>

--- a/data/maingraphs-performance-table.xlsx
+++ b/data/maingraphs-performance-table.xlsx
@@ -255,8 +255,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -325,7 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -356,6 +360,8 @@
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -386,6 +392,8 @@
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2964,8 +2972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5:R5"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F63" sqref="A55:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/maingraphs-performance-table.xlsx
+++ b/data/maingraphs-performance-table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -179,6 +179,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -255,7 +258,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -321,15 +324,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -362,6 +370,8 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -394,6 +404,8 @@
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -725,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5:R5"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="O49" sqref="A28:O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1792,59 +1804,59 @@
       <c r="A29" t="s">
         <v>15</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="5">
         <f>B4</f>
         <v>663.9</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="5">
         <f t="shared" ref="C29:O29" si="0">C4</f>
         <v>496.3</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="5">
         <f t="shared" si="0"/>
         <v>475.8</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="5">
         <f t="shared" si="0"/>
         <v>250.4</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="5">
         <f t="shared" si="0"/>
         <v>226.4</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="5">
         <f t="shared" si="0"/>
         <v>124.3</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="5">
         <f t="shared" si="0"/>
         <v>122.8</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="5">
         <f t="shared" si="0"/>
         <v>492.5</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="5">
         <f t="shared" si="0"/>
         <v>278.60000000000002</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="5">
         <f t="shared" si="0"/>
         <v>350.3</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="5">
         <f t="shared" si="0"/>
         <v>403.5</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="5">
         <f t="shared" si="0"/>
         <v>181.7</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="5">
         <f t="shared" si="0"/>
         <v>202.2</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="5">
         <f t="shared" si="0"/>
         <v>328.4</v>
       </c>
@@ -1853,59 +1865,59 @@
       <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="5">
         <f t="shared" ref="B30:O34" si="1">B5</f>
         <v>266.89999999999998</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="5">
         <f t="shared" si="1"/>
         <v>203.6</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="5">
         <f t="shared" si="1"/>
         <v>202.2</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="5">
         <f t="shared" si="1"/>
         <v>166.4</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="5">
         <f t="shared" si="1"/>
         <v>105.3</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="5">
         <f t="shared" si="1"/>
         <v>61.9</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="5">
         <f t="shared" si="1"/>
         <v>57.2</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="5">
         <f t="shared" si="1"/>
         <v>205.5</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="5">
         <f t="shared" si="1"/>
         <v>109.8</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="5">
         <f t="shared" si="1"/>
         <v>125.6</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="5">
         <f t="shared" si="1"/>
         <v>145.5</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="5">
         <f t="shared" si="1"/>
         <v>81.3</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="5">
         <f t="shared" si="1"/>
         <v>78.400000000000006</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="5">
         <f t="shared" si="1"/>
         <v>139.19999999999999</v>
       </c>
@@ -1914,59 +1926,59 @@
       <c r="A31" t="s">
         <v>17</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="5">
         <f t="shared" si="1"/>
         <v>240.3</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="5">
         <f t="shared" si="1"/>
         <v>183</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="5">
         <f t="shared" si="1"/>
         <v>191</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="5">
         <f t="shared" si="1"/>
         <v>42.5</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="5">
         <f t="shared" si="1"/>
         <v>43.9</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="5">
         <f t="shared" si="1"/>
         <v>28.5</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="5">
         <f t="shared" si="1"/>
         <v>25.2</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="5">
         <f t="shared" si="1"/>
         <v>190.4</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="5">
         <f t="shared" si="1"/>
         <v>115.4</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="5">
         <f t="shared" si="1"/>
         <v>91.3</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="5">
         <f t="shared" si="1"/>
         <v>173.2</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="5">
         <f t="shared" si="1"/>
         <v>68.5</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="5">
         <f t="shared" si="1"/>
         <v>43.5</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="5">
         <f t="shared" si="1"/>
         <v>110.5</v>
       </c>
@@ -1975,59 +1987,59 @@
       <c r="A32" t="s">
         <v>18</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="5">
         <f t="shared" si="1"/>
         <v>23.3</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="5">
         <f t="shared" si="1"/>
         <v>14.1</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="5">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="5">
         <f t="shared" si="1"/>
         <v>3.9</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="5">
         <f t="shared" si="1"/>
         <v>2.6</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="5">
         <f t="shared" si="1"/>
         <v>-1.2</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="5">
         <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="5">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="5">
         <f t="shared" si="1"/>
         <v>5.7</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="5">
         <f t="shared" si="1"/>
         <v>5.2</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="5">
         <f t="shared" si="1"/>
         <v>16.3</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="5">
         <f t="shared" si="1"/>
         <v>-3.1</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="5">
         <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="5">
         <f t="shared" si="1"/>
         <v>7.2</v>
       </c>
@@ -2036,59 +2048,59 @@
       <c r="A33" t="s">
         <v>20</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="5">
         <f t="shared" si="1"/>
         <v>133.5</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="5">
         <f t="shared" si="1"/>
         <v>95.5</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="5">
         <f t="shared" si="1"/>
         <v>78.099999999999994</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="5">
         <f t="shared" si="1"/>
         <v>37.700000000000003</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="5">
         <f t="shared" si="1"/>
         <v>74.599999999999994</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="5">
         <f t="shared" si="1"/>
         <v>35.1</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="5">
         <f t="shared" si="1"/>
         <v>36.200000000000003</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="5">
         <f t="shared" si="1"/>
         <v>88.8</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="5">
         <f t="shared" si="1"/>
         <v>46.6</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="5">
         <f t="shared" si="1"/>
         <v>103.6</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="5">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="5">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="5">
         <f t="shared" si="1"/>
         <v>66.5</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="5">
         <f t="shared" si="1"/>
         <v>68.2</v>
       </c>
@@ -2097,59 +2109,59 @@
       <c r="A34" t="s">
         <v>19</v>
       </c>
-      <c r="B34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I34">
+      <c r="B34" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
         <f t="shared" si="1"/>
         <v>-0.1</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="5">
         <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="5">
         <f t="shared" si="1"/>
         <v>24.7</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="5">
         <f t="shared" si="1"/>
         <v>13.4</v>
       </c>
-      <c r="M34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N34">
+      <c r="M34" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="5">
         <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="5">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
@@ -2163,59 +2175,59 @@
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="5">
         <f>B12-B11</f>
         <v>-233.5</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="5">
         <f t="shared" ref="C36:O36" si="2">C12-C11</f>
         <v>-157.69999999999999</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="5">
         <f t="shared" si="2"/>
         <v>-149.40000000000003</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="5">
         <f t="shared" si="2"/>
         <v>-60.300000000000011</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="5">
         <f t="shared" si="2"/>
         <v>-48.200000000000017</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="5">
         <f t="shared" si="2"/>
         <v>-23.099999999999994</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="5">
         <f t="shared" si="2"/>
         <v>-36.5</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="5">
         <f t="shared" si="2"/>
         <v>-186.89999999999998</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="5">
         <f t="shared" si="2"/>
         <v>-57.800000000000011</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="5">
         <f t="shared" si="2"/>
         <v>-58.300000000000011</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="5">
         <f t="shared" si="2"/>
         <v>-61.100000000000023</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="5">
         <f t="shared" si="2"/>
         <v>-35.199999999999989</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="5">
         <f t="shared" si="2"/>
         <v>-54.5</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="5">
         <f t="shared" si="2"/>
         <v>-89.499999999999972</v>
       </c>
@@ -2224,59 +2236,59 @@
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="5">
         <f t="shared" ref="B37:O42" si="3">B13-B12</f>
         <v>-40</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="5">
         <f t="shared" si="3"/>
         <v>-56</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="5">
         <f t="shared" si="3"/>
         <v>-57.299999999999955</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="5">
         <f t="shared" si="3"/>
         <v>-98.399999999999991</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="5">
         <f t="shared" si="3"/>
         <v>-57.999999999999986</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="5">
         <f t="shared" si="3"/>
         <v>-39.800000000000004</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="5">
         <f t="shared" si="3"/>
         <v>-16.200000000000003</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="5">
         <f t="shared" si="3"/>
         <v>-27.800000000000011</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="5">
         <f t="shared" si="3"/>
         <v>-68.300000000000011</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="5">
         <f t="shared" si="3"/>
         <v>-42.099999999999994</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="5">
         <f t="shared" si="3"/>
         <v>-62.5</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="5">
         <f t="shared" si="3"/>
         <v>-42.2</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="5">
         <f t="shared" si="3"/>
         <v>-24.799999999999983</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="5">
         <f t="shared" si="3"/>
         <v>-48.700000000000017</v>
       </c>
@@ -2285,59 +2297,59 @@
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="5">
         <f t="shared" si="3"/>
         <v>-133.09999999999997</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="5">
         <f t="shared" si="3"/>
         <v>-93.300000000000011</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="5">
         <f t="shared" si="3"/>
         <v>-67.400000000000034</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="5">
         <f t="shared" si="3"/>
         <v>-6.7999999999999972</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="5">
         <f t="shared" si="3"/>
         <v>-12.900000000000006</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="5">
         <f t="shared" si="3"/>
         <v>-8.7999999999999972</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="5">
         <f t="shared" si="3"/>
         <v>-10.699999999999996</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="5">
         <f t="shared" si="3"/>
         <v>-51</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="5">
         <f t="shared" si="3"/>
         <v>-28.799999999999997</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="5">
         <f t="shared" si="3"/>
         <v>-26</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="5">
         <f t="shared" si="3"/>
         <v>-48.299999999999983</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="5">
         <f t="shared" si="3"/>
         <v>-15.5</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="5">
         <f t="shared" si="3"/>
         <v>-11.600000000000009</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="5">
         <f t="shared" si="3"/>
         <v>-39.5</v>
       </c>
@@ -2346,59 +2358,59 @@
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="5">
         <f t="shared" si="3"/>
         <v>-102.9</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="5">
         <f t="shared" si="3"/>
         <v>-51.5</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="5">
         <f t="shared" si="3"/>
         <v>-85.399999999999991</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="5">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="5">
         <f t="shared" si="3"/>
         <v>-10.899999999999991</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="5">
         <f t="shared" si="3"/>
         <v>-8</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="5">
         <f t="shared" si="3"/>
         <v>-7.8999999999999986</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="5">
         <f t="shared" si="3"/>
         <v>-114.9</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="5">
         <f t="shared" si="3"/>
         <v>-18</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="5">
         <f t="shared" si="3"/>
         <v>-40</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="5">
         <f t="shared" si="3"/>
         <v>-55.599999999999994</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="5">
         <f t="shared" si="3"/>
         <v>-39.4</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="5">
         <f t="shared" si="3"/>
         <v>-24.200000000000003</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="5">
         <f t="shared" si="3"/>
         <v>-42.599999999999994</v>
       </c>
@@ -2407,59 +2419,59 @@
       <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C40">
+      <c r="B40" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C40" s="5">
         <f t="shared" si="3"/>
         <v>-14.500000000000014</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="5">
         <f t="shared" si="3"/>
         <v>-35.399999999999991</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="5">
         <f t="shared" si="3"/>
         <v>-18.400000000000006</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="5">
         <f t="shared" si="3"/>
         <v>-45.2</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="5">
         <f t="shared" si="3"/>
         <v>-20.900000000000002</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="5">
         <f t="shared" si="3"/>
         <v>-3.7999999999999972</v>
       </c>
-      <c r="I40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J40">
+      <c r="I40" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="5">
         <f t="shared" si="3"/>
         <v>-9.6000000000000085</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="5">
         <f t="shared" si="3"/>
         <v>-10.200000000000017</v>
       </c>
-      <c r="L40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M40">
+      <c r="L40" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="5">
         <f t="shared" si="3"/>
         <v>-17.199999999999996</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="5">
         <f t="shared" si="3"/>
         <v>-4.0999999999999943</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="5">
         <f t="shared" si="3"/>
         <v>-13.799999999999997</v>
       </c>
@@ -2468,59 +2480,59 @@
       <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="5">
         <f t="shared" si="3"/>
         <v>-53.2</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="5">
         <f t="shared" si="3"/>
         <v>-34.799999999999997</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="5">
         <f t="shared" si="3"/>
         <v>-15.700000000000003</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="5">
         <f t="shared" si="3"/>
         <v>-13.899999999999999</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="5">
         <f t="shared" si="3"/>
         <v>-5.5</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="5">
         <f t="shared" si="3"/>
         <v>-4.1999999999999993</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="5">
         <f t="shared" si="3"/>
         <v>-2.8000000000000043</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="5">
         <f t="shared" si="3"/>
         <v>-36.200000000000003</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="5">
         <f t="shared" si="3"/>
         <v>-9.5999999999999943</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="5">
         <f t="shared" si="3"/>
         <v>-39</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="5">
         <f t="shared" si="3"/>
         <v>-19.699999999999989</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="5">
         <f t="shared" si="3"/>
         <v>-1.7000000000000028</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="5">
         <f t="shared" si="3"/>
         <v>-9.5999999999999943</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="5">
         <f t="shared" si="3"/>
         <v>-18.899999999999991</v>
       </c>
@@ -2529,59 +2541,59 @@
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H42">
+      <c r="B42" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C42" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="5">
         <f t="shared" si="3"/>
         <v>-27.2</v>
       </c>
-      <c r="I42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K42">
+      <c r="I42" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="5">
         <f t="shared" si="3"/>
         <v>-36.599999999999994</v>
       </c>
-      <c r="L42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O42">
+      <c r="L42" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="5">
         <f t="shared" si="3"/>
         <v>-4.9000000000000057</v>
       </c>
@@ -2595,59 +2607,59 @@
       <c r="A44" t="s">
         <v>15</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="5">
         <f>B20</f>
         <v>101.2</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="5">
         <f t="shared" ref="C44:O44" si="4">C20</f>
         <v>88.5</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="5">
         <f t="shared" si="4"/>
         <v>65.2</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="5">
         <f t="shared" si="4"/>
         <v>57.6</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="5">
         <f t="shared" si="4"/>
         <v>45.7</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="5">
         <f t="shared" si="4"/>
         <v>19.5</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="5">
         <f t="shared" si="4"/>
         <v>17.7</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="5">
         <f t="shared" si="4"/>
         <v>75.7</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="5">
         <f t="shared" si="4"/>
         <v>86.5</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="5">
         <f t="shared" si="4"/>
         <v>98.1</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="5">
         <f t="shared" si="4"/>
         <v>156.30000000000001</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="5">
         <f t="shared" si="4"/>
         <v>30.5</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="5">
         <f t="shared" si="4"/>
         <v>73.400000000000006</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="5">
         <f t="shared" si="4"/>
         <v>70.5</v>
       </c>
@@ -2656,59 +2668,59 @@
       <c r="A45" t="s">
         <v>16</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="5">
         <f t="shared" ref="B45:O49" si="5">B21</f>
         <v>0</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="5">
         <f t="shared" si="5"/>
         <v>-2.8</v>
       </c>
-      <c r="D45">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E45">
+      <c r="D45" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="5">
         <f t="shared" si="5"/>
         <v>37.4</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="5">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="5">
         <f t="shared" si="5"/>
         <v>2.9</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="5">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="5">
         <f t="shared" si="5"/>
         <v>-0.2</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="5">
         <f t="shared" si="5"/>
         <v>-13.7</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="5">
         <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="5">
         <f t="shared" si="5"/>
         <v>20.399999999999999</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="5">
         <f t="shared" si="5"/>
         <v>5.6</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="5">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="5">
         <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
@@ -2717,59 +2729,59 @@
       <c r="A46" t="s">
         <v>17</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="5">
         <f t="shared" si="5"/>
         <v>29.3</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="5">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="5">
         <f t="shared" si="5"/>
         <v>-2.2999999999999998</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="5">
         <f t="shared" si="5"/>
         <v>20.3</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="5">
         <f t="shared" si="5"/>
         <v>4.3</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="5">
         <f t="shared" si="5"/>
         <v>2.4</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="5">
         <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="5">
         <f t="shared" si="5"/>
         <v>57.9</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="5">
         <f t="shared" si="5"/>
         <v>17.600000000000001</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="5">
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="5">
         <f t="shared" si="5"/>
         <v>2.7</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="5">
         <f t="shared" si="5"/>
         <v>14.5</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="5">
         <f t="shared" si="5"/>
         <v>19.3</v>
       </c>
@@ -2778,59 +2790,59 @@
       <c r="A47" t="s">
         <v>18</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="5">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="5">
         <f t="shared" si="5"/>
         <v>9.4</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="5">
         <f t="shared" si="5"/>
         <v>11.8</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="5">
         <f t="shared" si="5"/>
         <v>5.6</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="5">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="5">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="5">
         <f t="shared" si="5"/>
         <v>2.9</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="5">
         <f t="shared" si="5"/>
         <v>6.8</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="5">
         <f t="shared" si="5"/>
         <v>7.9</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="5">
         <f t="shared" si="5"/>
         <v>9.6999999999999993</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="5">
         <f t="shared" si="5"/>
         <v>14.9</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="5">
         <f t="shared" si="5"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="5">
         <f t="shared" si="5"/>
         <v>3.8</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="5">
         <f t="shared" si="5"/>
         <v>6.9</v>
       </c>
@@ -2839,59 +2851,59 @@
       <c r="A48" t="s">
         <v>20</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="5">
         <f t="shared" si="5"/>
         <v>90.2</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="5">
         <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="5">
         <f t="shared" si="5"/>
         <v>26.4</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="5">
         <f t="shared" si="5"/>
         <v>16.899999999999999</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="5">
         <f t="shared" si="5"/>
         <v>23.8</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="5">
         <f t="shared" si="5"/>
         <v>12.2</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="5">
         <f t="shared" si="5"/>
         <v>10.4</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="5">
         <f t="shared" si="5"/>
         <v>64.7</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="5">
         <f t="shared" si="5"/>
         <v>33.200000000000003</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="5">
         <f t="shared" si="5"/>
         <v>41.8</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="5">
         <f t="shared" si="5"/>
         <v>35.700000000000003</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="5">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="5">
         <f t="shared" si="5"/>
         <v>48.7</v>
       </c>
-      <c r="O48">
+      <c r="O48" s="5">
         <f t="shared" si="5"/>
         <v>36.4</v>
       </c>
@@ -2900,59 +2912,59 @@
       <c r="A49" t="s">
         <v>19</v>
       </c>
-      <c r="B49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I49">
+      <c r="B49" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C49" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D49" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="5">
         <f t="shared" si="5"/>
         <v>-0.1</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="5">
         <f t="shared" si="5"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="5">
         <f t="shared" si="5"/>
         <v>24.7</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="5">
         <f t="shared" si="5"/>
         <v>13.2</v>
       </c>
-      <c r="M49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N49">
+      <c r="M49" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="5">
         <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="5">
         <f t="shared" si="5"/>
         <v>3.3</v>
       </c>
@@ -2972,7 +2984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="F63" sqref="A55:F63"/>
     </sheetView>
   </sheetViews>

--- a/data/maingraphs-performance-table.xlsx
+++ b/data/maingraphs-performance-table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33560" windowHeight="20460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
     <t>offset for indirect lookup</t>
   </si>
   <si>
-    <t>UPDATED 20180301</t>
+    <t>UPDATED 20180305</t>
   </si>
 </sst>
 </file>
@@ -244,7 +244,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,8 +258,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -334,10 +344,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="79">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -372,6 +382,11 @@
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -406,6 +421,11 @@
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -737,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="O49" sqref="A28:O49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -865,10 +885,10 @@
         <v>492.5</v>
       </c>
       <c r="J4">
-        <v>278.60000000000002</v>
+        <v>272.60000000000002</v>
       </c>
       <c r="K4">
-        <v>350.3</v>
+        <v>348.9</v>
       </c>
       <c r="L4">
         <v>403.5</v>
@@ -880,7 +900,7 @@
         <v>202.2</v>
       </c>
       <c r="O4">
-        <v>328.4</v>
+        <v>327.8</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -912,10 +932,10 @@
         <v>205.5</v>
       </c>
       <c r="J5">
-        <v>109.8</v>
+        <v>105.6</v>
       </c>
       <c r="K5">
-        <v>125.6</v>
+        <v>124.7</v>
       </c>
       <c r="L5">
         <v>145.5</v>
@@ -927,12 +947,12 @@
         <v>78.400000000000006</v>
       </c>
       <c r="O5">
-        <v>139.19999999999999</v>
-      </c>
-      <c r="Q5" s="4" t="s">
+        <v>138.80000000000001</v>
+      </c>
+      <c r="Q5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="R5" s="4"/>
+      <c r="R5" s="5"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
@@ -963,10 +983,10 @@
         <v>190.4</v>
       </c>
       <c r="J6">
-        <v>115.4</v>
+        <v>111.7</v>
       </c>
       <c r="K6">
-        <v>91.3</v>
+        <v>90.5</v>
       </c>
       <c r="L6">
         <v>173.2</v>
@@ -978,7 +998,7 @@
         <v>43.5</v>
       </c>
       <c r="O6">
-        <v>110.5</v>
+        <v>110.2</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1010,10 +1030,10 @@
         <v>8</v>
       </c>
       <c r="J7">
-        <v>5.7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K7">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L7">
         <v>16.3</v>
@@ -1025,7 +1045,7 @@
         <v>9.5</v>
       </c>
       <c r="O7">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1057,10 +1077,10 @@
         <v>88.8</v>
       </c>
       <c r="J8">
-        <v>46.6</v>
+        <v>49</v>
       </c>
       <c r="K8">
-        <v>103.6</v>
+        <v>103.9</v>
       </c>
       <c r="L8">
         <v>55</v>
@@ -1072,7 +1092,7 @@
         <v>66.5</v>
       </c>
       <c r="O8">
-        <v>68.2</v>
+        <v>68.400000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1156,10 +1176,10 @@
         <v>492.5</v>
       </c>
       <c r="J11">
-        <v>278.60000000000002</v>
+        <v>272.60000000000002</v>
       </c>
       <c r="K11">
-        <v>350.3</v>
+        <v>348.9</v>
       </c>
       <c r="L11">
         <v>403.5</v>
@@ -1171,7 +1191,7 @@
         <v>202.2</v>
       </c>
       <c r="O11">
-        <v>328.4</v>
+        <v>327.8</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1203,10 +1223,10 @@
         <v>305.60000000000002</v>
       </c>
       <c r="J12">
-        <v>220.8</v>
+        <v>218.4</v>
       </c>
       <c r="K12">
-        <v>292</v>
+        <v>290.60000000000002</v>
       </c>
       <c r="L12">
         <v>342.4</v>
@@ -1218,7 +1238,7 @@
         <v>147.69999999999999</v>
       </c>
       <c r="O12">
-        <v>238.9</v>
+        <v>238.6</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1250,10 +1270,10 @@
         <v>277.8</v>
       </c>
       <c r="J13">
-        <v>152.5</v>
+        <v>150.69999999999999</v>
       </c>
       <c r="K13">
-        <v>249.9</v>
+        <v>248.5</v>
       </c>
       <c r="L13">
         <v>279.89999999999998</v>
@@ -1265,7 +1285,7 @@
         <v>122.9</v>
       </c>
       <c r="O13">
-        <v>190.2</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1297,10 +1317,10 @@
         <v>226.8</v>
       </c>
       <c r="J14">
-        <v>123.7</v>
+        <v>121.9</v>
       </c>
       <c r="K14">
-        <v>223.9</v>
+        <v>222.7</v>
       </c>
       <c r="L14">
         <v>231.6</v>
@@ -1312,7 +1332,7 @@
         <v>111.3</v>
       </c>
       <c r="O14">
-        <v>150.69999999999999</v>
+        <v>150.4</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1344,10 +1364,10 @@
         <v>111.9</v>
       </c>
       <c r="J15">
-        <v>105.7</v>
+        <v>103.9</v>
       </c>
       <c r="K15">
-        <v>183.9</v>
+        <v>182.7</v>
       </c>
       <c r="L15">
         <v>176</v>
@@ -1359,7 +1379,7 @@
         <v>87.1</v>
       </c>
       <c r="O15">
-        <v>108.1</v>
+        <v>107.8</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1391,10 +1411,10 @@
         <v>111.9</v>
       </c>
       <c r="J16">
-        <v>96.1</v>
+        <v>94.3</v>
       </c>
       <c r="K16">
-        <v>173.7</v>
+        <v>172.6</v>
       </c>
       <c r="L16">
         <v>176</v>
@@ -1406,7 +1426,7 @@
         <v>83</v>
       </c>
       <c r="O16">
-        <v>94.3</v>
+        <v>94.1</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1438,10 +1458,10 @@
         <v>75.7</v>
       </c>
       <c r="J17">
-        <v>86.5</v>
+        <v>84.6</v>
       </c>
       <c r="K17">
-        <v>134.69999999999999</v>
+        <v>133.5</v>
       </c>
       <c r="L17">
         <v>156.30000000000001</v>
@@ -1453,7 +1473,7 @@
         <v>73.400000000000006</v>
       </c>
       <c r="O17">
-        <v>75.400000000000006</v>
+        <v>75.099999999999994</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1485,10 +1505,10 @@
         <v>75.7</v>
       </c>
       <c r="J18">
-        <v>86.5</v>
+        <v>84.6</v>
       </c>
       <c r="K18">
-        <v>98.1</v>
+        <v>97</v>
       </c>
       <c r="L18">
         <v>156.30000000000001</v>
@@ -1500,7 +1520,7 @@
         <v>73.400000000000006</v>
       </c>
       <c r="O18">
-        <v>70.5</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1">
@@ -1537,10 +1557,10 @@
         <v>75.7</v>
       </c>
       <c r="J20">
-        <v>86.5</v>
+        <v>84.6</v>
       </c>
       <c r="K20">
-        <v>98.1</v>
+        <v>97</v>
       </c>
       <c r="L20">
         <v>156.30000000000001</v>
@@ -1552,7 +1572,7 @@
         <v>73.400000000000006</v>
       </c>
       <c r="O20">
-        <v>70.5</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1587,7 +1607,7 @@
         <v>-13.7</v>
       </c>
       <c r="K21">
-        <v>4.4000000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="L21">
         <v>20.399999999999999</v>
@@ -1599,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="O21">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1631,10 +1651,10 @@
         <v>4.5</v>
       </c>
       <c r="J22">
-        <v>57.9</v>
+        <v>54.3</v>
       </c>
       <c r="K22">
-        <v>17.600000000000001</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="L22">
         <v>72</v>
@@ -1646,7 +1666,7 @@
         <v>14.5</v>
       </c>
       <c r="O22">
-        <v>19.3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1678,10 +1698,10 @@
         <v>6.8</v>
       </c>
       <c r="J23">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="K23">
-        <v>9.6999999999999993</v>
+        <v>9.6</v>
       </c>
       <c r="L23">
         <v>14.9</v>
@@ -1693,7 +1713,7 @@
         <v>3.8</v>
       </c>
       <c r="O23">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1725,10 +1745,10 @@
         <v>64.7</v>
       </c>
       <c r="J24">
-        <v>33.200000000000003</v>
+        <v>35.5</v>
       </c>
       <c r="K24">
-        <v>41.8</v>
+        <v>42.1</v>
       </c>
       <c r="L24">
         <v>35.700000000000003</v>
@@ -1740,7 +1760,7 @@
         <v>48.7</v>
       </c>
       <c r="O24">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1804,364 +1824,364 @@
       <c r="A29" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <f>B4</f>
         <v>663.9</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <f t="shared" ref="C29:O29" si="0">C4</f>
         <v>496.3</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <f t="shared" si="0"/>
         <v>475.8</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <f t="shared" si="0"/>
         <v>250.4</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <f t="shared" si="0"/>
         <v>226.4</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="4">
         <f t="shared" si="0"/>
         <v>124.3</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="4">
         <f t="shared" si="0"/>
         <v>122.8</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="4">
         <f t="shared" si="0"/>
         <v>492.5</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="4">
         <f t="shared" si="0"/>
-        <v>278.60000000000002</v>
-      </c>
-      <c r="K29" s="5">
+        <v>272.60000000000002</v>
+      </c>
+      <c r="K29" s="4">
         <f t="shared" si="0"/>
-        <v>350.3</v>
-      </c>
-      <c r="L29" s="5">
+        <v>348.9</v>
+      </c>
+      <c r="L29" s="4">
         <f t="shared" si="0"/>
         <v>403.5</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="4">
         <f t="shared" si="0"/>
         <v>181.7</v>
       </c>
-      <c r="N29" s="5">
+      <c r="N29" s="4">
         <f t="shared" si="0"/>
         <v>202.2</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O29" s="4">
         <f t="shared" si="0"/>
-        <v>328.4</v>
+        <v>327.8</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <f t="shared" ref="B30:O34" si="1">B5</f>
         <v>266.89999999999998</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <f t="shared" si="1"/>
         <v>203.6</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <f t="shared" si="1"/>
         <v>202.2</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <f t="shared" si="1"/>
         <v>166.4</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <f t="shared" si="1"/>
         <v>105.3</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="4">
         <f t="shared" si="1"/>
         <v>61.9</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="4">
         <f t="shared" si="1"/>
         <v>57.2</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="4">
         <f t="shared" si="1"/>
         <v>205.5</v>
       </c>
-      <c r="J30" s="5">
-        <f t="shared" si="1"/>
-        <v>109.8</v>
-      </c>
-      <c r="K30" s="5">
-        <f t="shared" si="1"/>
-        <v>125.6</v>
-      </c>
-      <c r="L30" s="5">
+      <c r="J30" s="4">
+        <f t="shared" si="1"/>
+        <v>105.6</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="1"/>
+        <v>124.7</v>
+      </c>
+      <c r="L30" s="4">
         <f t="shared" si="1"/>
         <v>145.5</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30" s="4">
         <f t="shared" si="1"/>
         <v>81.3</v>
       </c>
-      <c r="N30" s="5">
+      <c r="N30" s="4">
         <f t="shared" si="1"/>
         <v>78.400000000000006</v>
       </c>
-      <c r="O30" s="5">
-        <f t="shared" si="1"/>
-        <v>139.19999999999999</v>
+      <c r="O30" s="4">
+        <f t="shared" si="1"/>
+        <v>138.80000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <f t="shared" si="1"/>
         <v>240.3</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <f t="shared" si="1"/>
         <v>183</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <f t="shared" si="1"/>
         <v>191</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <f t="shared" si="1"/>
         <v>42.5</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <f t="shared" si="1"/>
         <v>43.9</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="4">
         <f t="shared" si="1"/>
         <v>28.5</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="4">
         <f t="shared" si="1"/>
         <v>25.2</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="4">
         <f t="shared" si="1"/>
         <v>190.4</v>
       </c>
-      <c r="J31" s="5">
-        <f t="shared" si="1"/>
-        <v>115.4</v>
-      </c>
-      <c r="K31" s="5">
-        <f t="shared" si="1"/>
-        <v>91.3</v>
-      </c>
-      <c r="L31" s="5">
+      <c r="J31" s="4">
+        <f t="shared" si="1"/>
+        <v>111.7</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="1"/>
+        <v>90.5</v>
+      </c>
+      <c r="L31" s="4">
         <f t="shared" si="1"/>
         <v>173.2</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="4">
         <f t="shared" si="1"/>
         <v>68.5</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N31" s="4">
         <f t="shared" si="1"/>
         <v>43.5</v>
       </c>
-      <c r="O31" s="5">
-        <f t="shared" si="1"/>
-        <v>110.5</v>
+      <c r="O31" s="4">
+        <f t="shared" si="1"/>
+        <v>110.2</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <f t="shared" si="1"/>
         <v>23.3</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <f t="shared" si="1"/>
         <v>14.1</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <f t="shared" si="1"/>
         <v>3.9</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <f t="shared" si="1"/>
         <v>2.6</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="4">
         <f t="shared" si="1"/>
         <v>-1.2</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="4">
         <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J32" s="5">
-        <f t="shared" si="1"/>
-        <v>5.7</v>
-      </c>
-      <c r="K32" s="5">
-        <f t="shared" si="1"/>
-        <v>5.2</v>
-      </c>
-      <c r="L32" s="5">
+      <c r="J32" s="4">
+        <f t="shared" si="1"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K32" s="4">
+        <f t="shared" si="1"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L32" s="4">
         <f t="shared" si="1"/>
         <v>16.3</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="4">
         <f t="shared" si="1"/>
         <v>-3.1</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N32" s="4">
         <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
-      <c r="O32" s="5">
-        <f t="shared" si="1"/>
-        <v>7.2</v>
+      <c r="O32" s="4">
+        <f t="shared" si="1"/>
+        <v>7.1</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <f t="shared" si="1"/>
         <v>133.5</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <f t="shared" si="1"/>
         <v>95.5</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <f t="shared" si="1"/>
         <v>78.099999999999994</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="4">
         <f t="shared" si="1"/>
         <v>37.700000000000003</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="4">
         <f t="shared" si="1"/>
         <v>74.599999999999994</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="4">
         <f t="shared" si="1"/>
         <v>35.1</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="4">
         <f t="shared" si="1"/>
         <v>36.200000000000003</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="4">
         <f t="shared" si="1"/>
         <v>88.8</v>
       </c>
-      <c r="J33" s="5">
-        <f t="shared" si="1"/>
-        <v>46.6</v>
-      </c>
-      <c r="K33" s="5">
-        <f t="shared" si="1"/>
-        <v>103.6</v>
-      </c>
-      <c r="L33" s="5">
+      <c r="J33" s="4">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" si="1"/>
+        <v>103.9</v>
+      </c>
+      <c r="L33" s="4">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="4">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="N33" s="5">
+      <c r="N33" s="4">
         <f t="shared" si="1"/>
         <v>66.5</v>
       </c>
-      <c r="O33" s="5">
-        <f t="shared" si="1"/>
-        <v>68.2</v>
+      <c r="O33" s="4">
+        <f t="shared" si="1"/>
+        <v>68.400000000000006</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C34" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="5">
+      <c r="B34" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
         <f t="shared" si="1"/>
         <v>-0.1</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="4">
         <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="4">
         <f t="shared" si="1"/>
         <v>24.7</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="4">
         <f t="shared" si="1"/>
         <v>13.4</v>
       </c>
-      <c r="M34" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="5">
+      <c r="M34" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="4">
         <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="O34" s="5">
+      <c r="O34" s="4">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
@@ -2175,427 +2195,427 @@
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <f>B12-B11</f>
         <v>-233.5</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <f t="shared" ref="C36:O36" si="2">C12-C11</f>
         <v>-157.69999999999999</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <f t="shared" si="2"/>
         <v>-149.40000000000003</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <f t="shared" si="2"/>
         <v>-60.300000000000011</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="4">
         <f t="shared" si="2"/>
         <v>-48.200000000000017</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="4">
         <f t="shared" si="2"/>
         <v>-23.099999999999994</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="4">
         <f t="shared" si="2"/>
         <v>-36.5</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="4">
         <f t="shared" si="2"/>
         <v>-186.89999999999998</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="4">
         <f t="shared" si="2"/>
-        <v>-57.800000000000011</v>
-      </c>
-      <c r="K36" s="5">
+        <v>-54.200000000000017</v>
+      </c>
+      <c r="K36" s="4">
         <f t="shared" si="2"/>
-        <v>-58.300000000000011</v>
-      </c>
-      <c r="L36" s="5">
+        <v>-58.299999999999955</v>
+      </c>
+      <c r="L36" s="4">
         <f t="shared" si="2"/>
         <v>-61.100000000000023</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="4">
         <f t="shared" si="2"/>
         <v>-35.199999999999989</v>
       </c>
-      <c r="N36" s="5">
+      <c r="N36" s="4">
         <f t="shared" si="2"/>
         <v>-54.5</v>
       </c>
-      <c r="O36" s="5">
+      <c r="O36" s="4">
         <f t="shared" si="2"/>
-        <v>-89.499999999999972</v>
+        <v>-89.200000000000017</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <f t="shared" ref="B37:O42" si="3">B13-B12</f>
         <v>-40</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <f t="shared" si="3"/>
         <v>-56</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <f t="shared" si="3"/>
         <v>-57.299999999999955</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <f t="shared" si="3"/>
         <v>-98.399999999999991</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="4">
         <f t="shared" si="3"/>
         <v>-57.999999999999986</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="4">
         <f t="shared" si="3"/>
         <v>-39.800000000000004</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="4">
         <f t="shared" si="3"/>
         <v>-16.200000000000003</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="4">
         <f t="shared" si="3"/>
         <v>-27.800000000000011</v>
       </c>
-      <c r="J37" s="5">
-        <f t="shared" si="3"/>
-        <v>-68.300000000000011</v>
-      </c>
-      <c r="K37" s="5">
-        <f t="shared" si="3"/>
-        <v>-42.099999999999994</v>
-      </c>
-      <c r="L37" s="5">
+      <c r="J37" s="4">
+        <f t="shared" si="3"/>
+        <v>-67.700000000000017</v>
+      </c>
+      <c r="K37" s="4">
+        <f t="shared" si="3"/>
+        <v>-42.100000000000023</v>
+      </c>
+      <c r="L37" s="4">
         <f t="shared" si="3"/>
         <v>-62.5</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="4">
         <f t="shared" si="3"/>
         <v>-42.2</v>
       </c>
-      <c r="N37" s="5">
+      <c r="N37" s="4">
         <f t="shared" si="3"/>
         <v>-24.799999999999983</v>
       </c>
-      <c r="O37" s="5">
-        <f t="shared" si="3"/>
-        <v>-48.700000000000017</v>
+      <c r="O37" s="4">
+        <f t="shared" si="3"/>
+        <v>-48.599999999999994</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <f t="shared" si="3"/>
         <v>-133.09999999999997</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <f t="shared" si="3"/>
         <v>-93.300000000000011</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <f t="shared" si="3"/>
         <v>-67.400000000000034</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="4">
         <f t="shared" si="3"/>
         <v>-6.7999999999999972</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="4">
         <f t="shared" si="3"/>
         <v>-12.900000000000006</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="4">
         <f t="shared" si="3"/>
         <v>-8.7999999999999972</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="4">
         <f t="shared" si="3"/>
         <v>-10.699999999999996</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="4">
         <f t="shared" si="3"/>
         <v>-51</v>
       </c>
-      <c r="J38" s="5">
-        <f t="shared" si="3"/>
-        <v>-28.799999999999997</v>
-      </c>
-      <c r="K38" s="5">
-        <f t="shared" si="3"/>
-        <v>-26</v>
-      </c>
-      <c r="L38" s="5">
+      <c r="J38" s="4">
+        <f t="shared" si="3"/>
+        <v>-28.799999999999983</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="3"/>
+        <v>-25.800000000000011</v>
+      </c>
+      <c r="L38" s="4">
         <f t="shared" si="3"/>
         <v>-48.299999999999983</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="4">
         <f t="shared" si="3"/>
         <v>-15.5</v>
       </c>
-      <c r="N38" s="5">
+      <c r="N38" s="4">
         <f t="shared" si="3"/>
         <v>-11.600000000000009</v>
       </c>
-      <c r="O38" s="5">
-        <f t="shared" si="3"/>
-        <v>-39.5</v>
+      <c r="O38" s="4">
+        <f t="shared" si="3"/>
+        <v>-39.599999999999994</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <f t="shared" si="3"/>
         <v>-102.9</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <f t="shared" si="3"/>
         <v>-51.5</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <f t="shared" si="3"/>
         <v>-85.399999999999991</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="4">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="4">
         <f t="shared" si="3"/>
         <v>-10.899999999999991</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="4">
         <f t="shared" si="3"/>
         <v>-8</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="4">
         <f t="shared" si="3"/>
         <v>-7.8999999999999986</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="4">
         <f t="shared" si="3"/>
         <v>-114.9</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="4">
         <f t="shared" si="3"/>
         <v>-18</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="4">
         <f t="shared" si="3"/>
         <v>-40</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="4">
         <f t="shared" si="3"/>
         <v>-55.599999999999994</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="4">
         <f t="shared" si="3"/>
         <v>-39.4</v>
       </c>
-      <c r="N39" s="5">
+      <c r="N39" s="4">
         <f t="shared" si="3"/>
         <v>-24.200000000000003</v>
       </c>
-      <c r="O39" s="5">
-        <f t="shared" si="3"/>
-        <v>-42.599999999999994</v>
+      <c r="O39" s="4">
+        <f t="shared" si="3"/>
+        <v>-42.600000000000009</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C40" s="5">
+      <c r="B40" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
         <f t="shared" si="3"/>
         <v>-14.500000000000014</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <f t="shared" si="3"/>
         <v>-35.399999999999991</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="4">
         <f t="shared" si="3"/>
         <v>-18.400000000000006</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="4">
         <f t="shared" si="3"/>
         <v>-45.2</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="4">
         <f t="shared" si="3"/>
         <v>-20.900000000000002</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="4">
         <f t="shared" si="3"/>
         <v>-3.7999999999999972</v>
       </c>
-      <c r="I40" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="5">
+      <c r="I40" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
         <f t="shared" si="3"/>
         <v>-9.6000000000000085</v>
       </c>
-      <c r="K40" s="5">
-        <f t="shared" si="3"/>
-        <v>-10.200000000000017</v>
-      </c>
-      <c r="L40" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="5">
+      <c r="K40" s="4">
+        <f t="shared" si="3"/>
+        <v>-10.099999999999994</v>
+      </c>
+      <c r="L40" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
         <f t="shared" si="3"/>
         <v>-17.199999999999996</v>
       </c>
-      <c r="N40" s="5">
+      <c r="N40" s="4">
         <f t="shared" si="3"/>
         <v>-4.0999999999999943</v>
       </c>
-      <c r="O40" s="5">
-        <f t="shared" si="3"/>
-        <v>-13.799999999999997</v>
+      <c r="O40" s="4">
+        <f t="shared" si="3"/>
+        <v>-13.700000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <f t="shared" si="3"/>
         <v>-53.2</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <f t="shared" si="3"/>
         <v>-34.799999999999997</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <f t="shared" si="3"/>
         <v>-15.700000000000003</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="4">
         <f t="shared" si="3"/>
         <v>-13.899999999999999</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="4">
         <f t="shared" si="3"/>
         <v>-5.5</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="4">
         <f t="shared" si="3"/>
         <v>-4.1999999999999993</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="4">
         <f t="shared" si="3"/>
         <v>-2.8000000000000043</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="4">
         <f t="shared" si="3"/>
         <v>-36.200000000000003</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="4">
+        <f t="shared" si="3"/>
+        <v>-9.7000000000000028</v>
+      </c>
+      <c r="K41" s="4">
+        <f t="shared" si="3"/>
+        <v>-39.099999999999994</v>
+      </c>
+      <c r="L41" s="4">
+        <f t="shared" si="3"/>
+        <v>-19.699999999999989</v>
+      </c>
+      <c r="M41" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.7000000000000028</v>
+      </c>
+      <c r="N41" s="4">
         <f t="shared" si="3"/>
         <v>-9.5999999999999943</v>
       </c>
-      <c r="K41" s="5">
-        <f t="shared" si="3"/>
-        <v>-39</v>
-      </c>
-      <c r="L41" s="5">
-        <f t="shared" si="3"/>
-        <v>-19.699999999999989</v>
-      </c>
-      <c r="M41" s="5">
-        <f t="shared" si="3"/>
-        <v>-1.7000000000000028</v>
-      </c>
-      <c r="N41" s="5">
-        <f t="shared" si="3"/>
-        <v>-9.5999999999999943</v>
-      </c>
-      <c r="O41" s="5">
-        <f t="shared" si="3"/>
-        <v>-18.899999999999991</v>
+      <c r="O41" s="4">
+        <f t="shared" si="3"/>
+        <v>-19</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C42" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D42" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="5">
+      <c r="B42" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C42" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
         <f t="shared" si="3"/>
         <v>-27.2</v>
       </c>
-      <c r="I42" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="5">
-        <f t="shared" si="3"/>
-        <v>-36.599999999999994</v>
-      </c>
-      <c r="L42" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N42" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="5">
-        <f t="shared" si="3"/>
-        <v>-4.9000000000000057</v>
+      <c r="I42" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="3"/>
+        <v>-36.5</v>
+      </c>
+      <c r="L42" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="4">
+        <f t="shared" si="3"/>
+        <v>-4.8999999999999915</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2607,364 +2627,364 @@
       <c r="A44" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="4">
         <f>B20</f>
         <v>101.2</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <f t="shared" ref="C44:O44" si="4">C20</f>
         <v>88.5</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <f t="shared" si="4"/>
         <v>65.2</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4">
         <f t="shared" si="4"/>
         <v>57.6</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="4">
         <f t="shared" si="4"/>
         <v>45.7</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="4">
         <f t="shared" si="4"/>
         <v>19.5</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="4">
         <f t="shared" si="4"/>
         <v>17.7</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I44" s="4">
         <f t="shared" si="4"/>
         <v>75.7</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="4">
         <f t="shared" si="4"/>
-        <v>86.5</v>
-      </c>
-      <c r="K44" s="5">
+        <v>84.6</v>
+      </c>
+      <c r="K44" s="4">
         <f t="shared" si="4"/>
-        <v>98.1</v>
-      </c>
-      <c r="L44" s="5">
+        <v>97</v>
+      </c>
+      <c r="L44" s="4">
         <f t="shared" si="4"/>
         <v>156.30000000000001</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="4">
         <f t="shared" si="4"/>
         <v>30.5</v>
       </c>
-      <c r="N44" s="5">
+      <c r="N44" s="4">
         <f t="shared" si="4"/>
         <v>73.400000000000006</v>
       </c>
-      <c r="O44" s="5">
+      <c r="O44" s="4">
         <f t="shared" si="4"/>
-        <v>70.5</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="4">
         <f t="shared" ref="B45:O49" si="5">B21</f>
         <v>0</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <f t="shared" si="5"/>
         <v>-2.8</v>
       </c>
-      <c r="D45" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="5">
+      <c r="D45" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="4">
         <f t="shared" si="5"/>
         <v>37.4</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="4">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="4">
         <f t="shared" si="5"/>
         <v>2.9</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="4">
         <f t="shared" si="5"/>
         <v>-0.2</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="4">
         <f t="shared" si="5"/>
         <v>-13.7</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45" s="4">
+        <f t="shared" si="5"/>
+        <v>3.6</v>
+      </c>
+      <c r="L45" s="4">
+        <f t="shared" si="5"/>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="M45" s="4">
+        <f t="shared" si="5"/>
+        <v>5.6</v>
+      </c>
+      <c r="N45" s="4">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="O45" s="4">
         <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
-      </c>
-      <c r="L45" s="5">
-        <f t="shared" si="5"/>
-        <v>20.399999999999999</v>
-      </c>
-      <c r="M45" s="5">
-        <f t="shared" si="5"/>
-        <v>5.6</v>
-      </c>
-      <c r="N45" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="O45" s="5">
-        <f t="shared" si="5"/>
-        <v>4.5</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <f t="shared" si="5"/>
         <v>29.3</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="4">
         <f t="shared" si="5"/>
         <v>-2.2999999999999998</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="4">
         <f t="shared" si="5"/>
         <v>20.3</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="4">
         <f t="shared" si="5"/>
         <v>4.3</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="4">
         <f t="shared" si="5"/>
         <v>2.4</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I46" s="4">
         <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
-      <c r="J46" s="5">
-        <f t="shared" si="5"/>
-        <v>57.9</v>
-      </c>
-      <c r="K46" s="5">
-        <f t="shared" si="5"/>
-        <v>17.600000000000001</v>
-      </c>
-      <c r="L46" s="5">
+      <c r="J46" s="4">
+        <f t="shared" si="5"/>
+        <v>54.3</v>
+      </c>
+      <c r="K46" s="4">
+        <f t="shared" si="5"/>
+        <v>16.899999999999999</v>
+      </c>
+      <c r="L46" s="4">
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="4">
         <f t="shared" si="5"/>
         <v>2.7</v>
       </c>
-      <c r="N46" s="5">
+      <c r="N46" s="4">
         <f t="shared" si="5"/>
         <v>14.5</v>
       </c>
-      <c r="O46" s="5">
-        <f t="shared" si="5"/>
-        <v>19.3</v>
+      <c r="O46" s="4">
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="4">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <f t="shared" si="5"/>
         <v>9.4</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <f t="shared" si="5"/>
         <v>11.8</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="4">
         <f t="shared" si="5"/>
         <v>5.6</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="4">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="4">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="4">
         <f t="shared" si="5"/>
         <v>2.9</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I47" s="4">
         <f t="shared" si="5"/>
         <v>6.8</v>
       </c>
-      <c r="J47" s="5">
-        <f t="shared" si="5"/>
-        <v>7.9</v>
-      </c>
-      <c r="K47" s="5">
-        <f t="shared" si="5"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="L47" s="5">
+      <c r="J47" s="4">
+        <f t="shared" si="5"/>
+        <v>7.4</v>
+      </c>
+      <c r="K47" s="4">
+        <f t="shared" si="5"/>
+        <v>9.6</v>
+      </c>
+      <c r="L47" s="4">
         <f t="shared" si="5"/>
         <v>14.9</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="4">
         <f t="shared" si="5"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="N47" s="5">
+      <c r="N47" s="4">
         <f t="shared" si="5"/>
         <v>3.8</v>
       </c>
-      <c r="O47" s="5">
-        <f t="shared" si="5"/>
-        <v>6.9</v>
+      <c r="O47" s="4">
+        <f t="shared" si="5"/>
+        <v>6.8</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="4">
         <f t="shared" si="5"/>
         <v>90.2</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="4">
         <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <f t="shared" si="5"/>
         <v>26.4</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="4">
         <f t="shared" si="5"/>
         <v>16.899999999999999</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="4">
         <f t="shared" si="5"/>
         <v>23.8</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="4">
         <f t="shared" si="5"/>
         <v>12.2</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48" s="4">
         <f t="shared" si="5"/>
         <v>10.4</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I48" s="4">
         <f t="shared" si="5"/>
         <v>64.7</v>
       </c>
-      <c r="J48" s="5">
-        <f t="shared" si="5"/>
-        <v>33.200000000000003</v>
-      </c>
-      <c r="K48" s="5">
-        <f t="shared" si="5"/>
-        <v>41.8</v>
-      </c>
-      <c r="L48" s="5">
+      <c r="J48" s="4">
+        <f t="shared" si="5"/>
+        <v>35.5</v>
+      </c>
+      <c r="K48" s="4">
+        <f t="shared" si="5"/>
+        <v>42.1</v>
+      </c>
+      <c r="L48" s="4">
         <f t="shared" si="5"/>
         <v>35.700000000000003</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="4">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="N48" s="5">
+      <c r="N48" s="4">
         <f t="shared" si="5"/>
         <v>48.7</v>
       </c>
-      <c r="O48" s="5">
-        <f t="shared" si="5"/>
-        <v>36.4</v>
+      <c r="O48" s="4">
+        <f t="shared" si="5"/>
+        <v>36.6</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C49" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D49" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E49" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="5">
+      <c r="B49" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C49" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="4">
         <f t="shared" si="5"/>
         <v>-0.1</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="4">
         <f t="shared" si="5"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="K49" s="5">
+      <c r="K49" s="4">
         <f t="shared" si="5"/>
         <v>24.7</v>
       </c>
-      <c r="L49" s="5">
+      <c r="L49" s="4">
         <f t="shared" si="5"/>
         <v>13.2</v>
       </c>
-      <c r="M49" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N49" s="5">
+      <c r="M49" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="4">
         <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="O49" s="5">
+      <c r="O49" s="4">
         <f t="shared" si="5"/>
         <v>3.3</v>
       </c>
@@ -2984,8 +3004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F63" sqref="A55:F63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3120,10 +3140,10 @@
         <v>492.5</v>
       </c>
       <c r="J5">
-        <v>278.60000000000002</v>
+        <v>272.60000000000002</v>
       </c>
       <c r="K5">
-        <v>350.3</v>
+        <v>348.9</v>
       </c>
       <c r="L5">
         <v>403.5</v>
@@ -3135,12 +3155,12 @@
         <v>202.2</v>
       </c>
       <c r="O5">
-        <v>328.4</v>
-      </c>
-      <c r="Q5" s="4" t="s">
+        <v>327.8</v>
+      </c>
+      <c r="Q5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="R5" s="4"/>
+      <c r="R5" s="5"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
@@ -3171,10 +3191,10 @@
         <v>205.5</v>
       </c>
       <c r="J6">
-        <v>109.8</v>
+        <v>105.6</v>
       </c>
       <c r="K6">
-        <v>125.6</v>
+        <v>124.7</v>
       </c>
       <c r="L6">
         <v>145.5</v>
@@ -3186,7 +3206,7 @@
         <v>78.400000000000006</v>
       </c>
       <c r="O6">
-        <v>139.19999999999999</v>
+        <v>138.80000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -3218,10 +3238,10 @@
         <v>190.4</v>
       </c>
       <c r="J7">
-        <v>115.4</v>
+        <v>111.7</v>
       </c>
       <c r="K7">
-        <v>91.3</v>
+        <v>90.5</v>
       </c>
       <c r="L7">
         <v>173.2</v>
@@ -3233,7 +3253,7 @@
         <v>43.5</v>
       </c>
       <c r="O7">
-        <v>110.5</v>
+        <v>110.2</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -3265,10 +3285,10 @@
         <v>8</v>
       </c>
       <c r="J8">
-        <v>5.7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K8">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L8">
         <v>16.3</v>
@@ -3280,7 +3300,7 @@
         <v>9.5</v>
       </c>
       <c r="O8">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -3312,10 +3332,10 @@
         <v>88.7</v>
       </c>
       <c r="J9">
-        <v>47.7</v>
+        <v>50.1</v>
       </c>
       <c r="K9">
-        <v>128.19999999999999</v>
+        <v>128.6</v>
       </c>
       <c r="L9">
         <v>68.5</v>
@@ -3327,7 +3347,7 @@
         <v>70.900000000000006</v>
       </c>
       <c r="O9">
-        <v>71.5</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -3364,10 +3384,10 @@
         <v>305.60000000000002</v>
       </c>
       <c r="J11">
-        <v>220.8</v>
+        <v>218.4</v>
       </c>
       <c r="K11">
-        <v>292</v>
+        <v>290.60000000000002</v>
       </c>
       <c r="L11">
         <v>342.4</v>
@@ -3379,7 +3399,7 @@
         <v>147.69999999999999</v>
       </c>
       <c r="O11">
-        <v>238.9</v>
+        <v>238.6</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -3414,7 +3434,7 @@
         <v>45.1</v>
       </c>
       <c r="K12">
-        <v>60</v>
+        <v>59.2</v>
       </c>
       <c r="L12">
         <v>75.8</v>
@@ -3458,10 +3478,10 @@
         <v>190.4</v>
       </c>
       <c r="J13">
-        <v>115.4</v>
+        <v>111.7</v>
       </c>
       <c r="K13">
-        <v>91.3</v>
+        <v>90.5</v>
       </c>
       <c r="L13">
         <v>173.2</v>
@@ -3473,7 +3493,7 @@
         <v>43.5</v>
       </c>
       <c r="O13">
-        <v>110.5</v>
+        <v>110.2</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -3505,10 +3525,10 @@
         <v>29.3</v>
       </c>
       <c r="J14">
-        <v>12.5</v>
+        <v>11.4</v>
       </c>
       <c r="K14">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="L14">
         <v>24.9</v>
@@ -3520,7 +3540,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="O14">
-        <v>18.7</v>
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -3552,10 +3572,10 @@
         <v>85.3</v>
       </c>
       <c r="J15">
-        <v>47.7</v>
+        <v>50.1</v>
       </c>
       <c r="K15">
-        <v>128.19999999999999</v>
+        <v>128.5</v>
       </c>
       <c r="L15">
         <v>68.400000000000006</v>
@@ -3567,7 +3587,7 @@
         <v>70.3</v>
       </c>
       <c r="O15">
-        <v>71.099999999999994</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -3604,10 +3624,10 @@
         <v>277.8</v>
       </c>
       <c r="J17">
-        <v>152.5</v>
+        <v>150.69999999999999</v>
       </c>
       <c r="K17">
-        <v>249.9</v>
+        <v>248.5</v>
       </c>
       <c r="L17">
         <v>279.89999999999998</v>
@@ -3619,7 +3639,7 @@
         <v>122.9</v>
       </c>
       <c r="O17">
-        <v>190.2</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -3654,7 +3674,7 @@
         <v>-13.7</v>
       </c>
       <c r="K18">
-        <v>22.5</v>
+        <v>21.7</v>
       </c>
       <c r="L18">
         <v>20.5</v>
@@ -3698,10 +3718,10 @@
         <v>190.4</v>
       </c>
       <c r="J19">
-        <v>115.4</v>
+        <v>111.7</v>
       </c>
       <c r="K19">
-        <v>91.3</v>
+        <v>90.5</v>
       </c>
       <c r="L19">
         <v>173.2</v>
@@ -3713,7 +3733,7 @@
         <v>43.5</v>
       </c>
       <c r="O19">
-        <v>110.5</v>
+        <v>110.2</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -3745,10 +3765,10 @@
         <v>2.4</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K20">
-        <v>8.1999999999999993</v>
+        <v>8.1</v>
       </c>
       <c r="L20">
         <v>17.8</v>
@@ -3792,10 +3812,10 @@
         <v>85.3</v>
       </c>
       <c r="J21">
-        <v>47.7</v>
+        <v>50.1</v>
       </c>
       <c r="K21">
-        <v>127.9</v>
+        <v>128.19999999999999</v>
       </c>
       <c r="L21">
         <v>68.400000000000006</v>
@@ -3807,7 +3827,7 @@
         <v>70.3</v>
       </c>
       <c r="O21">
-        <v>71</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -3844,10 +3864,10 @@
         <v>226.8</v>
       </c>
       <c r="J23">
-        <v>123.7</v>
+        <v>121.9</v>
       </c>
       <c r="K23">
-        <v>223.9</v>
+        <v>222.7</v>
       </c>
       <c r="L23">
         <v>231.6</v>
@@ -3859,7 +3879,7 @@
         <v>111.3</v>
       </c>
       <c r="O23">
-        <v>150.69999999999999</v>
+        <v>150.4</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -3894,7 +3914,7 @@
         <v>-13.7</v>
       </c>
       <c r="K24">
-        <v>14.1</v>
+        <v>13.2</v>
       </c>
       <c r="L24">
         <v>20.399999999999999</v>
@@ -3906,7 +3926,7 @@
         <v>0.9</v>
       </c>
       <c r="O24">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -3938,10 +3958,10 @@
         <v>139.30000000000001</v>
       </c>
       <c r="J25">
-        <v>86.6</v>
+        <v>83</v>
       </c>
       <c r="K25">
-        <v>74.2</v>
+        <v>73.5</v>
       </c>
       <c r="L25">
         <v>125.4</v>
@@ -3953,7 +3973,7 @@
         <v>34.700000000000003</v>
       </c>
       <c r="O25">
-        <v>72.599999999999994</v>
+        <v>72.3</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -3985,7 +4005,7 @@
         <v>2.4</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K26">
         <v>8.1</v>
@@ -4000,7 +4020,7 @@
         <v>7.2</v>
       </c>
       <c r="O26">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -4032,10 +4052,10 @@
         <v>85.3</v>
       </c>
       <c r="J27">
-        <v>47.7</v>
+        <v>50.1</v>
       </c>
       <c r="K27">
-        <v>127.6</v>
+        <v>127.9</v>
       </c>
       <c r="L27">
         <v>68.099999999999994</v>
@@ -4047,7 +4067,7 @@
         <v>68.5</v>
       </c>
       <c r="O27">
-        <v>70.400000000000006</v>
+        <v>70.599999999999994</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -4084,10 +4104,10 @@
         <v>111.9</v>
       </c>
       <c r="J29">
-        <v>105.7</v>
+        <v>103.9</v>
       </c>
       <c r="K29">
-        <v>183.9</v>
+        <v>182.7</v>
       </c>
       <c r="L29">
         <v>176</v>
@@ -4099,7 +4119,7 @@
         <v>87.1</v>
       </c>
       <c r="O29">
-        <v>108.1</v>
+        <v>107.8</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -4134,7 +4154,7 @@
         <v>-9.6999999999999993</v>
       </c>
       <c r="K30">
-        <v>22.6</v>
+        <v>21.8</v>
       </c>
       <c r="L30">
         <v>20.399999999999999</v>
@@ -4146,7 +4166,7 @@
         <v>1.6</v>
       </c>
       <c r="O30">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -4178,10 +4198,10 @@
         <v>14.4</v>
       </c>
       <c r="J31">
-        <v>57.9</v>
+        <v>54.3</v>
       </c>
       <c r="K31">
-        <v>19.2</v>
+        <v>18.5</v>
       </c>
       <c r="L31">
         <v>72.400000000000006</v>
@@ -4193,7 +4213,7 @@
         <v>14.5</v>
       </c>
       <c r="O31">
-        <v>20.5</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -4225,10 +4245,10 @@
         <v>12.5</v>
       </c>
       <c r="J32">
-        <v>9.6999999999999993</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="K32">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="L32">
         <v>19.399999999999999</v>
@@ -4272,10 +4292,10 @@
         <v>85.3</v>
       </c>
       <c r="J33">
-        <v>47.7</v>
+        <v>50.1</v>
       </c>
       <c r="K33">
-        <v>127.6</v>
+        <v>128</v>
       </c>
       <c r="L33">
         <v>63.8</v>
@@ -4287,7 +4307,7 @@
         <v>65.099999999999994</v>
       </c>
       <c r="O33">
-        <v>69.599999999999994</v>
+        <v>69.8</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -4324,10 +4344,10 @@
         <v>111.9</v>
       </c>
       <c r="J35">
-        <v>96.1</v>
+        <v>94.3</v>
       </c>
       <c r="K35">
-        <v>173.7</v>
+        <v>172.6</v>
       </c>
       <c r="L35">
         <v>176</v>
@@ -4339,7 +4359,7 @@
         <v>83</v>
       </c>
       <c r="O35">
-        <v>94.3</v>
+        <v>94.1</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -4374,7 +4394,7 @@
         <v>-9.6999999999999993</v>
       </c>
       <c r="K36">
-        <v>22.6</v>
+        <v>21.8</v>
       </c>
       <c r="L36">
         <v>20.399999999999999</v>
@@ -4386,7 +4406,7 @@
         <v>1.6</v>
       </c>
       <c r="O36">
-        <v>7</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -4418,10 +4438,10 @@
         <v>14.4</v>
       </c>
       <c r="J37">
-        <v>57.9</v>
+        <v>54.3</v>
       </c>
       <c r="K37">
-        <v>19.100000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="L37">
         <v>72.400000000000006</v>
@@ -4433,7 +4453,7 @@
         <v>14.5</v>
       </c>
       <c r="O37">
-        <v>20.5</v>
+        <v>20.100000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -4465,10 +4485,10 @@
         <v>12.5</v>
       </c>
       <c r="J38">
-        <v>9.6999999999999993</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="K38">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="L38">
         <v>19.399999999999999</v>
@@ -4480,7 +4500,7 @@
         <v>5.8</v>
       </c>
       <c r="O38">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -4512,10 +4532,10 @@
         <v>85.2</v>
       </c>
       <c r="J39">
-        <v>38.200000000000003</v>
+        <v>40.5</v>
       </c>
       <c r="K39">
-        <v>117.5</v>
+        <v>117.8</v>
       </c>
       <c r="L39">
         <v>63.8</v>
@@ -4527,7 +4547,7 @@
         <v>61.1</v>
       </c>
       <c r="O39">
-        <v>56</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -4564,10 +4584,10 @@
         <v>75.7</v>
       </c>
       <c r="J41">
-        <v>86.5</v>
+        <v>84.6</v>
       </c>
       <c r="K41">
-        <v>134.69999999999999</v>
+        <v>133.5</v>
       </c>
       <c r="L41">
         <v>156.30000000000001</v>
@@ -4579,7 +4599,7 @@
         <v>73.400000000000006</v>
       </c>
       <c r="O41">
-        <v>75.400000000000006</v>
+        <v>75.099999999999994</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -4614,7 +4634,7 @@
         <v>-13.7</v>
       </c>
       <c r="K42">
-        <v>19.100000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="L42">
         <v>20.399999999999999</v>
@@ -4658,10 +4678,10 @@
         <v>4.5</v>
       </c>
       <c r="J43">
-        <v>57.9</v>
+        <v>54.3</v>
       </c>
       <c r="K43">
-        <v>17.600000000000001</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="L43">
         <v>72</v>
@@ -4673,7 +4693,7 @@
         <v>14.5</v>
       </c>
       <c r="O43">
-        <v>19.3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -4705,10 +4725,10 @@
         <v>6.8</v>
       </c>
       <c r="J44">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="K44">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="L44">
         <v>14.9</v>
@@ -4752,10 +4772,10 @@
         <v>64.599999999999994</v>
       </c>
       <c r="J45">
-        <v>34.299999999999997</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="K45">
-        <v>87.6</v>
+        <v>87.9</v>
       </c>
       <c r="L45">
         <v>49</v>
@@ -4767,7 +4787,7 @@
         <v>53.1</v>
       </c>
       <c r="O45">
-        <v>42.8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -4804,10 +4824,10 @@
         <v>75.7</v>
       </c>
       <c r="J47">
-        <v>86.5</v>
+        <v>84.6</v>
       </c>
       <c r="K47">
-        <v>98.1</v>
+        <v>97</v>
       </c>
       <c r="L47">
         <v>156.30000000000001</v>
@@ -4819,7 +4839,7 @@
         <v>73.400000000000006</v>
       </c>
       <c r="O47">
-        <v>70.5</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -4854,7 +4874,7 @@
         <v>-13.7</v>
       </c>
       <c r="K48">
-        <v>4.4000000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="L48">
         <v>20.399999999999999</v>
@@ -4866,7 +4886,7 @@
         <v>2</v>
       </c>
       <c r="O48">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -4898,10 +4918,10 @@
         <v>4.5</v>
       </c>
       <c r="J49">
-        <v>57.9</v>
+        <v>54.3</v>
       </c>
       <c r="K49">
-        <v>17.600000000000001</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="L49">
         <v>72</v>
@@ -4913,7 +4933,7 @@
         <v>14.5</v>
       </c>
       <c r="O49">
-        <v>19.3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -4945,10 +4965,10 @@
         <v>6.8</v>
       </c>
       <c r="J50">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="K50">
-        <v>9.6999999999999993</v>
+        <v>9.6</v>
       </c>
       <c r="L50">
         <v>14.9</v>
@@ -4960,7 +4980,7 @@
         <v>3.8</v>
       </c>
       <c r="O50">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -4992,10 +5012,10 @@
         <v>64.599999999999994</v>
       </c>
       <c r="J51">
-        <v>34.299999999999997</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="K51">
-        <v>66.400000000000006</v>
+        <v>66.8</v>
       </c>
       <c r="L51">
         <v>49</v>
@@ -5007,7 +5027,7 @@
         <v>53.1</v>
       </c>
       <c r="O51">
-        <v>39.799999999999997</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="3" customFormat="1">
@@ -5041,23 +5061,23 @@
       </c>
       <c r="B56">
         <f t="shared" ref="B56:B63" ca="1" si="0">OFFSET($O$5,0+$T56,0)</f>
-        <v>328.4</v>
+        <v>327.8</v>
       </c>
       <c r="C56">
         <f t="shared" ref="C56:C63" ca="1" si="1">OFFSET($O$6,0+$T56,0)</f>
-        <v>139.19999999999999</v>
+        <v>138.80000000000001</v>
       </c>
       <c r="D56">
         <f t="shared" ref="D56:D63" ca="1" si="2">OFFSET($O$7,0+$T56,0)</f>
-        <v>110.5</v>
+        <v>110.2</v>
       </c>
       <c r="E56">
         <f t="shared" ref="E56:E63" ca="1" si="3">OFFSET($O$8,0+$T56,0)</f>
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="F56">
         <f t="shared" ref="F56:F63" ca="1" si="4">OFFSET($O$9,0+$T56,0)</f>
-        <v>71.5</v>
+        <v>71.7</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -5069,7 +5089,7 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="0"/>
-        <v>238.9</v>
+        <v>238.6</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="1"/>
@@ -5077,15 +5097,15 @@
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="2"/>
-        <v>110.5</v>
+        <v>110.2</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="3"/>
-        <v>18.7</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="4"/>
-        <v>71.099999999999994</v>
+        <v>71.3</v>
       </c>
       <c r="T57">
         <v>6</v>
@@ -5097,7 +5117,7 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="0"/>
-        <v>190.2</v>
+        <v>190</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="1"/>
@@ -5105,7 +5125,7 @@
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="2"/>
-        <v>110.5</v>
+        <v>110.2</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="3"/>
@@ -5113,7 +5133,7 @@
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>71.2</v>
       </c>
       <c r="T58">
         <v>12</v>
@@ -5125,23 +5145,23 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="0"/>
-        <v>150.69999999999999</v>
+        <v>150.4</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="2"/>
-        <v>72.599999999999994</v>
+        <v>72.3</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="4"/>
-        <v>70.400000000000006</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="T59">
         <v>18</v>
@@ -5153,15 +5173,15 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="0"/>
-        <v>108.1</v>
+        <v>107.8</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="2"/>
-        <v>20.5</v>
+        <v>20.2</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="3"/>
@@ -5169,7 +5189,7 @@
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="4"/>
-        <v>69.599999999999994</v>
+        <v>69.8</v>
       </c>
       <c r="T60">
         <v>24</v>
@@ -5181,23 +5201,23 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="0"/>
-        <v>94.3</v>
+        <v>94.1</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="2"/>
-        <v>20.5</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="3"/>
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>56.2</v>
       </c>
       <c r="T61">
         <v>30</v>
@@ -5209,7 +5229,7 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="0"/>
-        <v>75.400000000000006</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
@@ -5217,7 +5237,7 @@
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="2"/>
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="3"/>
@@ -5225,7 +5245,7 @@
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="4"/>
-        <v>42.8</v>
+        <v>43</v>
       </c>
       <c r="T62">
         <v>36</v>
@@ -5237,23 +5257,23 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="0"/>
-        <v>70.5</v>
+        <v>70.2</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="2"/>
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="3"/>
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="4"/>
-        <v>39.799999999999997</v>
+        <v>40</v>
       </c>
       <c r="T63">
         <v>42</v>
@@ -5338,11 +5358,11 @@
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="5"/>
-        <v>278.60000000000002</v>
+        <v>272.60000000000002</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="5"/>
-        <v>350.3</v>
+        <v>348.9</v>
       </c>
       <c r="L67">
         <f t="shared" ca="1" si="5"/>
@@ -5395,11 +5415,11 @@
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="6"/>
-        <v>220.8</v>
+        <v>218.4</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="6"/>
-        <v>292</v>
+        <v>290.60000000000002</v>
       </c>
       <c r="L68">
         <f t="shared" ca="1" si="6"/>
@@ -5452,11 +5472,11 @@
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="6"/>
-        <v>152.5</v>
+        <v>150.69999999999999</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="6"/>
-        <v>249.9</v>
+        <v>248.5</v>
       </c>
       <c r="L69">
         <f t="shared" ca="1" si="6"/>
@@ -5509,11 +5529,11 @@
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="6"/>
-        <v>123.7</v>
+        <v>121.9</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="6"/>
-        <v>223.9</v>
+        <v>222.7</v>
       </c>
       <c r="L70">
         <f t="shared" ca="1" si="6"/>
@@ -5566,11 +5586,11 @@
       </c>
       <c r="J71">
         <f t="shared" ca="1" si="6"/>
-        <v>105.7</v>
+        <v>103.9</v>
       </c>
       <c r="K71">
         <f t="shared" ca="1" si="6"/>
-        <v>183.9</v>
+        <v>182.7</v>
       </c>
       <c r="L71">
         <f t="shared" ca="1" si="6"/>
@@ -5623,11 +5643,11 @@
       </c>
       <c r="J72">
         <f t="shared" ca="1" si="6"/>
-        <v>96.1</v>
+        <v>94.3</v>
       </c>
       <c r="K72">
         <f t="shared" ca="1" si="6"/>
-        <v>173.7</v>
+        <v>172.6</v>
       </c>
       <c r="L72">
         <f t="shared" ca="1" si="6"/>
@@ -5680,11 +5700,11 @@
       </c>
       <c r="J73">
         <f t="shared" ca="1" si="6"/>
-        <v>86.5</v>
+        <v>84.6</v>
       </c>
       <c r="K73">
         <f t="shared" ca="1" si="6"/>
-        <v>134.69999999999999</v>
+        <v>133.5</v>
       </c>
       <c r="L73">
         <f t="shared" ca="1" si="6"/>
@@ -5737,11 +5757,11 @@
       </c>
       <c r="J74">
         <f t="shared" ca="1" si="6"/>
-        <v>86.5</v>
+        <v>84.6</v>
       </c>
       <c r="K74">
         <f t="shared" ca="1" si="6"/>
-        <v>98.1</v>
+        <v>97</v>
       </c>
       <c r="L74">
         <f t="shared" ca="1" si="6"/>

--- a/data/maingraphs-performance-table.xlsx
+++ b/data/maingraphs-performance-table.xlsx
@@ -258,8 +258,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="79">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -347,7 +351,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="79">
+  <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -387,6 +391,8 @@
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -426,6 +432,8 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3004,8 +3012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F63" sqref="A55:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/maingraphs-performance-table.xlsx
+++ b/data/maingraphs-performance-table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33560" windowHeight="20460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33560" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -258,8 +258,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="83">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -351,7 +355,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="83">
+  <cellStyles count="87">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -393,6 +397,8 @@
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -434,6 +440,8 @@
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -765,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3012,7 +3020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="F63" sqref="A55:F63"/>
     </sheetView>
   </sheetViews>

--- a/data/maingraphs-performance-table.xlsx
+++ b/data/maingraphs-performance-table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33560" windowHeight="20460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33560" windowHeight="20460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -258,8 +258,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="87">
+  <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -355,7 +361,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="87">
+  <cellStyles count="93">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -399,6 +405,9 @@
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -442,6 +451,9 @@
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -773,7 +785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28:O49"/>
     </sheetView>
   </sheetViews>
@@ -3020,8 +3032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F63" sqref="A55:F63"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/maingraphs-performance-table.xlsx
+++ b/data/maingraphs-performance-table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="52">
   <si>
     <t>BENCHMARK x</t>
   </si>
@@ -172,7 +172,10 @@
     <t>offset for indirect lookup</t>
   </si>
   <si>
-    <t>UPDATED 20180305</t>
+    <t>coremk_ch2</t>
+  </si>
+  <si>
+    <t>UPDATED 20180327</t>
   </si>
 </sst>
 </file>
@@ -244,7 +247,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,8 +261,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="93">
+  <cellStyleXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -361,7 +380,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="93">
+  <cellStyles count="109">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -408,6 +427,14 @@
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -454,6 +481,14 @@
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -786,7 +821,7 @@
   <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:O49"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -826,7 +861,7 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
@@ -916,7 +951,7 @@
         <v>272.60000000000002</v>
       </c>
       <c r="K4">
-        <v>348.9</v>
+        <v>312.2</v>
       </c>
       <c r="L4">
         <v>403.5</v>
@@ -925,10 +960,10 @@
         <v>181.7</v>
       </c>
       <c r="N4">
-        <v>202.2</v>
+        <v>205.2</v>
       </c>
       <c r="O4">
-        <v>327.8</v>
+        <v>325.2</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -963,7 +998,7 @@
         <v>105.6</v>
       </c>
       <c r="K5">
-        <v>124.7</v>
+        <v>124.5</v>
       </c>
       <c r="L5">
         <v>145.5</v>
@@ -972,13 +1007,13 @@
         <v>81.3</v>
       </c>
       <c r="N5">
-        <v>78.400000000000006</v>
+        <v>77.5</v>
       </c>
       <c r="O5">
-        <v>138.80000000000001</v>
+        <v>138.69999999999999</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R5" s="5"/>
     </row>
@@ -1014,7 +1049,7 @@
         <v>111.7</v>
       </c>
       <c r="K6">
-        <v>90.5</v>
+        <v>91.2</v>
       </c>
       <c r="L6">
         <v>173.2</v>
@@ -1023,10 +1058,10 @@
         <v>68.5</v>
       </c>
       <c r="N6">
-        <v>43.5</v>
+        <v>47.6</v>
       </c>
       <c r="O6">
-        <v>110.2</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1061,7 +1096,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="K7">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="L7">
         <v>16.3</v>
@@ -1070,10 +1105,10 @@
         <v>-3.1</v>
       </c>
       <c r="N7">
-        <v>9.5</v>
+        <v>10.9</v>
       </c>
       <c r="O7">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1108,7 +1143,7 @@
         <v>49</v>
       </c>
       <c r="K8">
-        <v>103.9</v>
+        <v>90.6</v>
       </c>
       <c r="L8">
         <v>55</v>
@@ -1117,10 +1152,10 @@
         <v>35</v>
       </c>
       <c r="N8">
-        <v>66.5</v>
+        <v>64.8</v>
       </c>
       <c r="O8">
-        <v>68.400000000000006</v>
+        <v>67.2</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1155,7 +1190,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K9">
-        <v>24.7</v>
+        <v>0.8</v>
       </c>
       <c r="L9">
         <v>13.4</v>
@@ -1167,7 +1202,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="O9">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="1" customFormat="1">
@@ -1207,7 +1242,7 @@
         <v>272.60000000000002</v>
       </c>
       <c r="K11">
-        <v>348.9</v>
+        <v>312.2</v>
       </c>
       <c r="L11">
         <v>403.5</v>
@@ -1216,10 +1251,10 @@
         <v>181.7</v>
       </c>
       <c r="N11">
-        <v>202.2</v>
+        <v>205.2</v>
       </c>
       <c r="O11">
-        <v>327.8</v>
+        <v>325.2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1254,7 +1289,7 @@
         <v>218.4</v>
       </c>
       <c r="K12">
-        <v>290.60000000000002</v>
+        <v>253.9</v>
       </c>
       <c r="L12">
         <v>342.4</v>
@@ -1263,10 +1298,10 @@
         <v>146.5</v>
       </c>
       <c r="N12">
-        <v>147.69999999999999</v>
+        <v>150.80000000000001</v>
       </c>
       <c r="O12">
-        <v>238.6</v>
+        <v>236.1</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1301,7 +1336,7 @@
         <v>150.69999999999999</v>
       </c>
       <c r="K13">
-        <v>248.5</v>
+        <v>211</v>
       </c>
       <c r="L13">
         <v>279.89999999999998</v>
@@ -1310,10 +1345,10 @@
         <v>104.3</v>
       </c>
       <c r="N13">
-        <v>122.9</v>
+        <v>126.5</v>
       </c>
       <c r="O13">
-        <v>190</v>
+        <v>187.4</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1348,7 +1383,7 @@
         <v>121.9</v>
       </c>
       <c r="K14">
-        <v>222.7</v>
+        <v>184.9</v>
       </c>
       <c r="L14">
         <v>231.6</v>
@@ -1357,10 +1392,10 @@
         <v>88.8</v>
       </c>
       <c r="N14">
-        <v>111.3</v>
+        <v>111.1</v>
       </c>
       <c r="O14">
-        <v>150.4</v>
+        <v>147.5</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1395,7 +1430,7 @@
         <v>103.9</v>
       </c>
       <c r="K15">
-        <v>182.7</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="L15">
         <v>176</v>
@@ -1404,10 +1439,10 @@
         <v>49.4</v>
       </c>
       <c r="N15">
-        <v>87.1</v>
+        <v>82.4</v>
       </c>
       <c r="O15">
-        <v>107.8</v>
+        <v>104.6</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1442,7 +1477,7 @@
         <v>94.3</v>
       </c>
       <c r="K16">
-        <v>172.6</v>
+        <v>134.80000000000001</v>
       </c>
       <c r="L16">
         <v>176</v>
@@ -1451,10 +1486,10 @@
         <v>32.200000000000003</v>
       </c>
       <c r="N16">
-        <v>83</v>
+        <v>79.2</v>
       </c>
       <c r="O16">
-        <v>94.1</v>
+        <v>90.9</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1489,7 +1524,7 @@
         <v>84.6</v>
       </c>
       <c r="K17">
-        <v>133.5</v>
+        <v>95.5</v>
       </c>
       <c r="L17">
         <v>156.30000000000001</v>
@@ -1498,10 +1533,10 @@
         <v>30.5</v>
       </c>
       <c r="N17">
-        <v>73.400000000000006</v>
+        <v>70.2</v>
       </c>
       <c r="O17">
-        <v>75.099999999999994</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1536,7 +1571,7 @@
         <v>84.6</v>
       </c>
       <c r="K18">
-        <v>97</v>
+        <v>58.9</v>
       </c>
       <c r="L18">
         <v>156.30000000000001</v>
@@ -1545,10 +1580,10 @@
         <v>30.5</v>
       </c>
       <c r="N18">
-        <v>73.400000000000006</v>
+        <v>70.2</v>
       </c>
       <c r="O18">
-        <v>70.2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1">
@@ -1588,7 +1623,7 @@
         <v>84.6</v>
       </c>
       <c r="K20">
-        <v>97</v>
+        <v>58.9</v>
       </c>
       <c r="L20">
         <v>156.30000000000001</v>
@@ -1597,10 +1632,10 @@
         <v>30.5</v>
       </c>
       <c r="N20">
-        <v>73.400000000000006</v>
+        <v>70.2</v>
       </c>
       <c r="O20">
-        <v>70.2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1635,7 +1670,7 @@
         <v>-13.7</v>
       </c>
       <c r="K21">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="L21">
         <v>20.399999999999999</v>
@@ -1644,10 +1679,10 @@
         <v>5.6</v>
       </c>
       <c r="N21">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O21">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1682,7 +1717,7 @@
         <v>54.3</v>
       </c>
       <c r="K22">
-        <v>16.899999999999999</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="L22">
         <v>72</v>
@@ -1691,10 +1726,10 @@
         <v>2.7</v>
       </c>
       <c r="N22">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="O22">
-        <v>19</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1738,10 +1773,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="N23">
-        <v>3.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="O23">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1776,7 +1811,7 @@
         <v>35.5</v>
       </c>
       <c r="K24">
-        <v>42.1</v>
+        <v>28.8</v>
       </c>
       <c r="L24">
         <v>35.700000000000003</v>
@@ -1785,10 +1820,10 @@
         <v>17</v>
       </c>
       <c r="N24">
-        <v>48.7</v>
+        <v>46.1</v>
       </c>
       <c r="O24">
-        <v>36.6</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1823,7 +1858,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K25">
-        <v>24.7</v>
+        <v>0.8</v>
       </c>
       <c r="L25">
         <v>13.2</v>
@@ -1835,7 +1870,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="O25">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="3" customFormat="1">
@@ -1890,7 +1925,7 @@
       </c>
       <c r="K29" s="4">
         <f t="shared" si="0"/>
-        <v>348.9</v>
+        <v>312.2</v>
       </c>
       <c r="L29" s="4">
         <f t="shared" si="0"/>
@@ -1902,11 +1937,11 @@
       </c>
       <c r="N29" s="4">
         <f t="shared" si="0"/>
-        <v>202.2</v>
+        <v>205.2</v>
       </c>
       <c r="O29" s="4">
         <f t="shared" si="0"/>
-        <v>327.8</v>
+        <v>325.2</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1951,7 +1986,7 @@
       </c>
       <c r="K30" s="4">
         <f t="shared" si="1"/>
-        <v>124.7</v>
+        <v>124.5</v>
       </c>
       <c r="L30" s="4">
         <f t="shared" si="1"/>
@@ -1963,11 +1998,11 @@
       </c>
       <c r="N30" s="4">
         <f t="shared" si="1"/>
-        <v>78.400000000000006</v>
+        <v>77.5</v>
       </c>
       <c r="O30" s="4">
         <f t="shared" si="1"/>
-        <v>138.80000000000001</v>
+        <v>138.69999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2012,7 +2047,7 @@
       </c>
       <c r="K31" s="4">
         <f t="shared" si="1"/>
-        <v>90.5</v>
+        <v>91.2</v>
       </c>
       <c r="L31" s="4">
         <f t="shared" si="1"/>
@@ -2024,11 +2059,11 @@
       </c>
       <c r="N31" s="4">
         <f t="shared" si="1"/>
-        <v>43.5</v>
+        <v>47.6</v>
       </c>
       <c r="O31" s="4">
         <f t="shared" si="1"/>
-        <v>110.2</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2073,7 +2108,7 @@
       </c>
       <c r="K32" s="4">
         <f t="shared" si="1"/>
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="L32" s="4">
         <f t="shared" si="1"/>
@@ -2085,11 +2120,11 @@
       </c>
       <c r="N32" s="4">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>10.9</v>
       </c>
       <c r="O32" s="4">
         <f t="shared" si="1"/>
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2134,7 +2169,7 @@
       </c>
       <c r="K33" s="4">
         <f t="shared" si="1"/>
-        <v>103.9</v>
+        <v>90.6</v>
       </c>
       <c r="L33" s="4">
         <f t="shared" si="1"/>
@@ -2146,11 +2181,11 @@
       </c>
       <c r="N33" s="4">
         <f t="shared" si="1"/>
-        <v>66.5</v>
+        <v>64.8</v>
       </c>
       <c r="O33" s="4">
         <f t="shared" si="1"/>
-        <v>68.400000000000006</v>
+        <v>67.2</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2195,7 +2230,7 @@
       </c>
       <c r="K34" s="4">
         <f t="shared" si="1"/>
-        <v>24.7</v>
+        <v>0.8</v>
       </c>
       <c r="L34" s="4">
         <f t="shared" si="1"/>
@@ -2211,7 +2246,7 @@
       </c>
       <c r="O34" s="4">
         <f t="shared" si="1"/>
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2261,7 +2296,7 @@
       </c>
       <c r="K36" s="4">
         <f t="shared" si="2"/>
-        <v>-58.299999999999955</v>
+        <v>-58.299999999999983</v>
       </c>
       <c r="L36" s="4">
         <f t="shared" si="2"/>
@@ -2273,11 +2308,11 @@
       </c>
       <c r="N36" s="4">
         <f t="shared" si="2"/>
-        <v>-54.5</v>
+        <v>-54.399999999999977</v>
       </c>
       <c r="O36" s="4">
         <f t="shared" si="2"/>
-        <v>-89.200000000000017</v>
+        <v>-89.1</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2322,7 +2357,7 @@
       </c>
       <c r="K37" s="4">
         <f t="shared" si="3"/>
-        <v>-42.100000000000023</v>
+        <v>-42.900000000000006</v>
       </c>
       <c r="L37" s="4">
         <f t="shared" si="3"/>
@@ -2334,11 +2369,11 @@
       </c>
       <c r="N37" s="4">
         <f t="shared" si="3"/>
-        <v>-24.799999999999983</v>
+        <v>-24.300000000000011</v>
       </c>
       <c r="O37" s="4">
         <f t="shared" si="3"/>
-        <v>-48.599999999999994</v>
+        <v>-48.699999999999989</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2383,7 +2418,7 @@
       </c>
       <c r="K38" s="4">
         <f t="shared" si="3"/>
-        <v>-25.800000000000011</v>
+        <v>-26.099999999999994</v>
       </c>
       <c r="L38" s="4">
         <f t="shared" si="3"/>
@@ -2395,11 +2430,11 @@
       </c>
       <c r="N38" s="4">
         <f t="shared" si="3"/>
-        <v>-11.600000000000009</v>
+        <v>-15.400000000000006</v>
       </c>
       <c r="O38" s="4">
         <f t="shared" si="3"/>
-        <v>-39.599999999999994</v>
+        <v>-39.900000000000006</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2444,7 +2479,7 @@
       </c>
       <c r="K39" s="4">
         <f t="shared" si="3"/>
-        <v>-40</v>
+        <v>-40.099999999999994</v>
       </c>
       <c r="L39" s="4">
         <f t="shared" si="3"/>
@@ -2456,11 +2491,11 @@
       </c>
       <c r="N39" s="4">
         <f t="shared" si="3"/>
-        <v>-24.200000000000003</v>
+        <v>-28.699999999999989</v>
       </c>
       <c r="O39" s="4">
         <f t="shared" si="3"/>
-        <v>-42.600000000000009</v>
+        <v>-42.900000000000006</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2505,7 +2540,7 @@
       </c>
       <c r="K40" s="4">
         <f t="shared" si="3"/>
-        <v>-10.099999999999994</v>
+        <v>-10</v>
       </c>
       <c r="L40" s="4">
         <f t="shared" si="3"/>
@@ -2517,11 +2552,11 @@
       </c>
       <c r="N40" s="4">
         <f t="shared" si="3"/>
-        <v>-4.0999999999999943</v>
+        <v>-3.2000000000000028</v>
       </c>
       <c r="O40" s="4">
         <f t="shared" si="3"/>
-        <v>-13.700000000000003</v>
+        <v>-13.699999999999989</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2566,7 +2601,7 @@
       </c>
       <c r="K41" s="4">
         <f t="shared" si="3"/>
-        <v>-39.099999999999994</v>
+        <v>-39.300000000000011</v>
       </c>
       <c r="L41" s="4">
         <f t="shared" si="3"/>
@@ -2578,11 +2613,11 @@
       </c>
       <c r="N41" s="4">
         <f t="shared" si="3"/>
-        <v>-9.5999999999999943</v>
+        <v>-9</v>
       </c>
       <c r="O41" s="4">
         <f t="shared" si="3"/>
-        <v>-19</v>
+        <v>-18.900000000000006</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2627,7 +2662,7 @@
       </c>
       <c r="K42" s="4">
         <f t="shared" si="3"/>
-        <v>-36.5</v>
+        <v>-36.6</v>
       </c>
       <c r="L42" s="4">
         <f t="shared" si="3"/>
@@ -2643,7 +2678,7 @@
       </c>
       <c r="O42" s="4">
         <f t="shared" si="3"/>
-        <v>-4.8999999999999915</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2693,7 +2728,7 @@
       </c>
       <c r="K44" s="4">
         <f t="shared" si="4"/>
-        <v>97</v>
+        <v>58.9</v>
       </c>
       <c r="L44" s="4">
         <f t="shared" si="4"/>
@@ -2705,11 +2740,11 @@
       </c>
       <c r="N44" s="4">
         <f t="shared" si="4"/>
-        <v>73.400000000000006</v>
+        <v>70.2</v>
       </c>
       <c r="O44" s="4">
         <f t="shared" si="4"/>
-        <v>70.2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2754,7 +2789,7 @@
       </c>
       <c r="K45" s="4">
         <f t="shared" si="5"/>
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="L45" s="4">
         <f t="shared" si="5"/>
@@ -2766,11 +2801,11 @@
       </c>
       <c r="N45" s="4">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O45" s="4">
         <f t="shared" si="5"/>
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2815,7 +2850,7 @@
       </c>
       <c r="K46" s="4">
         <f t="shared" si="5"/>
-        <v>16.899999999999999</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="L46" s="4">
         <f t="shared" si="5"/>
@@ -2827,11 +2862,11 @@
       </c>
       <c r="N46" s="4">
         <f t="shared" si="5"/>
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="O46" s="4">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2888,11 +2923,11 @@
       </c>
       <c r="N47" s="4">
         <f t="shared" si="5"/>
-        <v>3.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="O47" s="4">
         <f t="shared" si="5"/>
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2937,7 +2972,7 @@
       </c>
       <c r="K48" s="4">
         <f t="shared" si="5"/>
-        <v>42.1</v>
+        <v>28.8</v>
       </c>
       <c r="L48" s="4">
         <f t="shared" si="5"/>
@@ -2949,11 +2984,11 @@
       </c>
       <c r="N48" s="4">
         <f t="shared" si="5"/>
-        <v>48.7</v>
+        <v>46.1</v>
       </c>
       <c r="O48" s="4">
         <f t="shared" si="5"/>
-        <v>36.6</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -2998,7 +3033,7 @@
       </c>
       <c r="K49" s="4">
         <f t="shared" si="5"/>
-        <v>24.7</v>
+        <v>0.8</v>
       </c>
       <c r="L49" s="4">
         <f t="shared" si="5"/>
@@ -3014,7 +3049,7 @@
       </c>
       <c r="O49" s="4">
         <f t="shared" si="5"/>
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -3032,8 +3067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:XFD63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3122,7 +3157,7 @@
         <v>9</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L3" t="s">
         <v>11</v>
@@ -3171,7 +3206,7 @@
         <v>272.60000000000002</v>
       </c>
       <c r="K5">
-        <v>348.9</v>
+        <v>312.2</v>
       </c>
       <c r="L5">
         <v>403.5</v>
@@ -3180,13 +3215,13 @@
         <v>181.7</v>
       </c>
       <c r="N5">
-        <v>202.2</v>
+        <v>205.2</v>
       </c>
       <c r="O5">
-        <v>327.8</v>
+        <v>325.2</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R5" s="5"/>
     </row>
@@ -3222,7 +3257,7 @@
         <v>105.6</v>
       </c>
       <c r="K6">
-        <v>124.7</v>
+        <v>124.5</v>
       </c>
       <c r="L6">
         <v>145.5</v>
@@ -3231,10 +3266,10 @@
         <v>81.3</v>
       </c>
       <c r="N6">
-        <v>78.400000000000006</v>
+        <v>77.5</v>
       </c>
       <c r="O6">
-        <v>138.80000000000001</v>
+        <v>138.69999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -3269,7 +3304,7 @@
         <v>111.7</v>
       </c>
       <c r="K7">
-        <v>90.5</v>
+        <v>91.2</v>
       </c>
       <c r="L7">
         <v>173.2</v>
@@ -3278,10 +3313,10 @@
         <v>68.5</v>
       </c>
       <c r="N7">
-        <v>43.5</v>
+        <v>47.6</v>
       </c>
       <c r="O7">
-        <v>110.2</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -3316,7 +3351,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="K8">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="L8">
         <v>16.3</v>
@@ -3325,10 +3360,10 @@
         <v>-3.1</v>
       </c>
       <c r="N8">
-        <v>9.5</v>
+        <v>10.9</v>
       </c>
       <c r="O8">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -3363,7 +3398,7 @@
         <v>50.1</v>
       </c>
       <c r="K9">
-        <v>128.6</v>
+        <v>91.4</v>
       </c>
       <c r="L9">
         <v>68.5</v>
@@ -3372,10 +3407,10 @@
         <v>35</v>
       </c>
       <c r="N9">
-        <v>70.900000000000006</v>
+        <v>69.2</v>
       </c>
       <c r="O9">
-        <v>71.7</v>
+        <v>68.7</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -3415,7 +3450,7 @@
         <v>218.4</v>
       </c>
       <c r="K11">
-        <v>290.60000000000002</v>
+        <v>253.9</v>
       </c>
       <c r="L11">
         <v>342.4</v>
@@ -3424,10 +3459,10 @@
         <v>146.5</v>
       </c>
       <c r="N11">
-        <v>147.69999999999999</v>
+        <v>150.80000000000001</v>
       </c>
       <c r="O11">
-        <v>238.6</v>
+        <v>236.1</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -3462,7 +3497,7 @@
         <v>45.1</v>
       </c>
       <c r="K12">
-        <v>59.2</v>
+        <v>59</v>
       </c>
       <c r="L12">
         <v>75.8</v>
@@ -3471,10 +3506,10 @@
         <v>43.1</v>
       </c>
       <c r="N12">
-        <v>17</v>
+        <v>16.3</v>
       </c>
       <c r="O12">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -3509,7 +3544,7 @@
         <v>111.7</v>
       </c>
       <c r="K13">
-        <v>90.5</v>
+        <v>91.2</v>
       </c>
       <c r="L13">
         <v>173.2</v>
@@ -3518,10 +3553,10 @@
         <v>68.5</v>
       </c>
       <c r="N13">
-        <v>43.5</v>
+        <v>47.6</v>
       </c>
       <c r="O13">
-        <v>110.2</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -3565,10 +3600,10 @@
         <v>-0.1</v>
       </c>
       <c r="N14">
-        <v>16.899999999999999</v>
+        <v>18.3</v>
       </c>
       <c r="O14">
-        <v>18.600000000000001</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -3603,7 +3638,7 @@
         <v>50.1</v>
       </c>
       <c r="K15">
-        <v>128.5</v>
+        <v>91.4</v>
       </c>
       <c r="L15">
         <v>68.400000000000006</v>
@@ -3612,10 +3647,10 @@
         <v>35</v>
       </c>
       <c r="N15">
-        <v>70.3</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="O15">
-        <v>71.3</v>
+        <v>68.3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -3655,7 +3690,7 @@
         <v>150.69999999999999</v>
       </c>
       <c r="K17">
-        <v>248.5</v>
+        <v>211</v>
       </c>
       <c r="L17">
         <v>279.89999999999998</v>
@@ -3664,10 +3699,10 @@
         <v>104.3</v>
       </c>
       <c r="N17">
-        <v>122.9</v>
+        <v>126.5</v>
       </c>
       <c r="O17">
-        <v>190</v>
+        <v>187.4</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -3702,7 +3737,7 @@
         <v>-13.7</v>
       </c>
       <c r="K18">
-        <v>21.7</v>
+        <v>20.7</v>
       </c>
       <c r="L18">
         <v>20.5</v>
@@ -3711,10 +3746,10 @@
         <v>6</v>
       </c>
       <c r="N18">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="O18">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -3749,7 +3784,7 @@
         <v>111.7</v>
       </c>
       <c r="K19">
-        <v>90.5</v>
+        <v>91.2</v>
       </c>
       <c r="L19">
         <v>173.2</v>
@@ -3758,10 +3793,10 @@
         <v>68.5</v>
       </c>
       <c r="N19">
-        <v>43.5</v>
+        <v>47.6</v>
       </c>
       <c r="O19">
-        <v>110.2</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -3796,7 +3831,7 @@
         <v>2.5</v>
       </c>
       <c r="K20">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="L20">
         <v>17.8</v>
@@ -3805,10 +3840,10 @@
         <v>-4.4000000000000004</v>
       </c>
       <c r="N20">
-        <v>8.1999999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="O20">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -3843,7 +3878,7 @@
         <v>50.1</v>
       </c>
       <c r="K21">
-        <v>128.19999999999999</v>
+        <v>91</v>
       </c>
       <c r="L21">
         <v>68.400000000000006</v>
@@ -3852,10 +3887,10 @@
         <v>34.200000000000003</v>
       </c>
       <c r="N21">
-        <v>70.3</v>
+        <v>68.5</v>
       </c>
       <c r="O21">
-        <v>71.2</v>
+        <v>68.2</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -3895,7 +3930,7 @@
         <v>121.9</v>
       </c>
       <c r="K23">
-        <v>222.7</v>
+        <v>184.9</v>
       </c>
       <c r="L23">
         <v>231.6</v>
@@ -3904,10 +3939,10 @@
         <v>88.8</v>
       </c>
       <c r="N23">
-        <v>111.3</v>
+        <v>111.1</v>
       </c>
       <c r="O23">
-        <v>150.4</v>
+        <v>147.5</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -3942,7 +3977,7 @@
         <v>-13.7</v>
       </c>
       <c r="K24">
-        <v>13.2</v>
+        <v>12.3</v>
       </c>
       <c r="L24">
         <v>20.399999999999999</v>
@@ -3951,10 +3986,10 @@
         <v>4.8</v>
       </c>
       <c r="N24">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="O24">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -3989,7 +4024,7 @@
         <v>83</v>
       </c>
       <c r="K25">
-        <v>73.5</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="L25">
         <v>125.4</v>
@@ -3998,10 +4033,10 @@
         <v>54.1</v>
       </c>
       <c r="N25">
-        <v>34.700000000000003</v>
+        <v>37.1</v>
       </c>
       <c r="O25">
-        <v>72.3</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -4036,7 +4071,7 @@
         <v>2.5</v>
       </c>
       <c r="K26">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="L26">
         <v>17.7</v>
@@ -4045,10 +4080,10 @@
         <v>-4.3</v>
       </c>
       <c r="N26">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="O26">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -4083,7 +4118,7 @@
         <v>50.1</v>
       </c>
       <c r="K27">
-        <v>127.9</v>
+        <v>90.7</v>
       </c>
       <c r="L27">
         <v>68.099999999999994</v>
@@ -4092,10 +4127,10 @@
         <v>34.200000000000003</v>
       </c>
       <c r="N27">
-        <v>68.5</v>
+        <v>65.3</v>
       </c>
       <c r="O27">
-        <v>70.599999999999994</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -4135,7 +4170,7 @@
         <v>103.9</v>
       </c>
       <c r="K29">
-        <v>182.7</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="L29">
         <v>176</v>
@@ -4144,10 +4179,10 @@
         <v>49.4</v>
       </c>
       <c r="N29">
-        <v>87.1</v>
+        <v>82.4</v>
       </c>
       <c r="O29">
-        <v>107.8</v>
+        <v>104.6</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -4182,7 +4217,7 @@
         <v>-9.6999999999999993</v>
       </c>
       <c r="K30">
-        <v>21.8</v>
+        <v>20.7</v>
       </c>
       <c r="L30">
         <v>20.399999999999999</v>
@@ -4191,10 +4226,10 @@
         <v>6.8</v>
       </c>
       <c r="N30">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="O30">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -4229,7 +4264,7 @@
         <v>54.3</v>
       </c>
       <c r="K31">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="L31">
         <v>72.400000000000006</v>
@@ -4238,7 +4273,7 @@
         <v>2.7</v>
       </c>
       <c r="N31">
-        <v>14.5</v>
+        <v>13.8</v>
       </c>
       <c r="O31">
         <v>20.2</v>
@@ -4276,7 +4311,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="K32">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="L32">
         <v>19.399999999999999</v>
@@ -4285,7 +4320,7 @@
         <v>5.6</v>
       </c>
       <c r="N32">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="O32">
         <v>10.7</v>
@@ -4323,7 +4358,7 @@
         <v>50.1</v>
       </c>
       <c r="K33">
-        <v>128</v>
+        <v>90.8</v>
       </c>
       <c r="L33">
         <v>63.8</v>
@@ -4332,10 +4367,10 @@
         <v>34.200000000000003</v>
       </c>
       <c r="N33">
-        <v>65.099999999999994</v>
+        <v>59.2</v>
       </c>
       <c r="O33">
-        <v>69.8</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -4375,7 +4410,7 @@
         <v>94.3</v>
       </c>
       <c r="K35">
-        <v>172.6</v>
+        <v>134.80000000000001</v>
       </c>
       <c r="L35">
         <v>176</v>
@@ -4384,10 +4419,10 @@
         <v>32.200000000000003</v>
       </c>
       <c r="N35">
-        <v>83</v>
+        <v>79.2</v>
       </c>
       <c r="O35">
-        <v>94.1</v>
+        <v>90.9</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -4422,7 +4457,7 @@
         <v>-9.6999999999999993</v>
       </c>
       <c r="K36">
-        <v>21.8</v>
+        <v>20.7</v>
       </c>
       <c r="L36">
         <v>20.399999999999999</v>
@@ -4431,7 +4466,7 @@
         <v>6.8</v>
       </c>
       <c r="N36">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="O36">
         <v>6.9</v>
@@ -4469,7 +4504,7 @@
         <v>54.3</v>
       </c>
       <c r="K37">
-        <v>18.5</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="L37">
         <v>72.400000000000006</v>
@@ -4478,7 +4513,7 @@
         <v>2.7</v>
       </c>
       <c r="N37">
-        <v>14.5</v>
+        <v>13.8</v>
       </c>
       <c r="O37">
         <v>20.100000000000001</v>
@@ -4516,7 +4551,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="K38">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="L38">
         <v>19.399999999999999</v>
@@ -4525,7 +4560,7 @@
         <v>5.6</v>
       </c>
       <c r="N38">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="O38">
         <v>10.8</v>
@@ -4563,7 +4598,7 @@
         <v>40.5</v>
       </c>
       <c r="K39">
-        <v>117.8</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="L39">
         <v>63.8</v>
@@ -4572,10 +4607,10 @@
         <v>17</v>
       </c>
       <c r="N39">
-        <v>61.1</v>
+        <v>56.6</v>
       </c>
       <c r="O39">
-        <v>56.2</v>
+        <v>52.9</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -4615,7 +4650,7 @@
         <v>84.6</v>
       </c>
       <c r="K41">
-        <v>133.5</v>
+        <v>95.5</v>
       </c>
       <c r="L41">
         <v>156.30000000000001</v>
@@ -4624,10 +4659,10 @@
         <v>30.5</v>
       </c>
       <c r="N41">
-        <v>73.400000000000006</v>
+        <v>70.2</v>
       </c>
       <c r="O41">
-        <v>75.099999999999994</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -4662,7 +4697,7 @@
         <v>-13.7</v>
       </c>
       <c r="K42">
-        <v>18.2</v>
+        <v>17.2</v>
       </c>
       <c r="L42">
         <v>20.399999999999999</v>
@@ -4671,10 +4706,10 @@
         <v>5.6</v>
       </c>
       <c r="N42">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O42">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -4709,7 +4744,7 @@
         <v>54.3</v>
       </c>
       <c r="K43">
-        <v>16.899999999999999</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="L43">
         <v>72</v>
@@ -4718,10 +4753,10 @@
         <v>2.7</v>
       </c>
       <c r="N43">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="O43">
-        <v>19</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -4765,7 +4800,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="N44">
-        <v>3.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="O44">
         <v>7</v>
@@ -4803,7 +4838,7 @@
         <v>36.700000000000003</v>
       </c>
       <c r="K45">
-        <v>87.9</v>
+        <v>50.7</v>
       </c>
       <c r="L45">
         <v>49</v>
@@ -4812,10 +4847,10 @@
         <v>17</v>
       </c>
       <c r="N45">
-        <v>53.1</v>
+        <v>50.5</v>
       </c>
       <c r="O45">
-        <v>43</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -4855,7 +4890,7 @@
         <v>84.6</v>
       </c>
       <c r="K47">
-        <v>97</v>
+        <v>58.9</v>
       </c>
       <c r="L47">
         <v>156.30000000000001</v>
@@ -4864,10 +4899,10 @@
         <v>30.5</v>
       </c>
       <c r="N47">
-        <v>73.400000000000006</v>
+        <v>70.2</v>
       </c>
       <c r="O47">
-        <v>70.2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -4902,7 +4937,7 @@
         <v>-13.7</v>
       </c>
       <c r="K48">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="L48">
         <v>20.399999999999999</v>
@@ -4911,10 +4946,10 @@
         <v>5.6</v>
       </c>
       <c r="N48">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O48">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -4949,7 +4984,7 @@
         <v>54.3</v>
       </c>
       <c r="K49">
-        <v>16.899999999999999</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="L49">
         <v>72</v>
@@ -4958,10 +4993,10 @@
         <v>2.7</v>
       </c>
       <c r="N49">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="O49">
-        <v>19</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -5005,10 +5040,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="N50">
-        <v>3.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="O50">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -5043,7 +5078,7 @@
         <v>36.700000000000003</v>
       </c>
       <c r="K51">
-        <v>66.8</v>
+        <v>29.6</v>
       </c>
       <c r="L51">
         <v>49</v>
@@ -5052,10 +5087,10 @@
         <v>17</v>
       </c>
       <c r="N51">
-        <v>53.1</v>
+        <v>50.5</v>
       </c>
       <c r="O51">
-        <v>40</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="3" customFormat="1">
@@ -5089,23 +5124,23 @@
       </c>
       <c r="B56">
         <f t="shared" ref="B56:B63" ca="1" si="0">OFFSET($O$5,0+$T56,0)</f>
-        <v>327.8</v>
+        <v>325.2</v>
       </c>
       <c r="C56">
         <f t="shared" ref="C56:C63" ca="1" si="1">OFFSET($O$6,0+$T56,0)</f>
-        <v>138.80000000000001</v>
+        <v>138.69999999999999</v>
       </c>
       <c r="D56">
         <f t="shared" ref="D56:D63" ca="1" si="2">OFFSET($O$7,0+$T56,0)</f>
-        <v>110.2</v>
+        <v>110.5</v>
       </c>
       <c r="E56">
         <f t="shared" ref="E56:E63" ca="1" si="3">OFFSET($O$8,0+$T56,0)</f>
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="F56">
         <f t="shared" ref="F56:F63" ca="1" si="4">OFFSET($O$9,0+$T56,0)</f>
-        <v>71.7</v>
+        <v>68.7</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -5117,23 +5152,23 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="0"/>
-        <v>238.6</v>
+        <v>236.1</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="1"/>
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="2"/>
-        <v>110.2</v>
+        <v>110.5</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="3"/>
-        <v>18.600000000000001</v>
+        <v>18.7</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="4"/>
-        <v>71.3</v>
+        <v>68.3</v>
       </c>
       <c r="T57">
         <v>6</v>
@@ -5145,23 +5180,23 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="0"/>
-        <v>190</v>
+        <v>187.4</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="2"/>
-        <v>110.2</v>
+        <v>110.5</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="4"/>
-        <v>71.2</v>
+        <v>68.2</v>
       </c>
       <c r="T58">
         <v>12</v>
@@ -5173,23 +5208,23 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="0"/>
-        <v>150.4</v>
+        <v>147.5</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="2"/>
-        <v>72.3</v>
+        <v>72.5</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="3"/>
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="4"/>
-        <v>70.599999999999994</v>
+        <v>67.5</v>
       </c>
       <c r="T59">
         <v>18</v>
@@ -5201,11 +5236,11 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="0"/>
-        <v>107.8</v>
+        <v>104.6</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="2"/>
@@ -5217,7 +5252,7 @@
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="4"/>
-        <v>69.8</v>
+        <v>66.5</v>
       </c>
       <c r="T60">
         <v>24</v>
@@ -5229,7 +5264,7 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="0"/>
-        <v>94.1</v>
+        <v>90.9</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
@@ -5245,7 +5280,7 @@
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="4"/>
-        <v>56.2</v>
+        <v>52.9</v>
       </c>
       <c r="T61">
         <v>30</v>
@@ -5257,15 +5292,15 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="0"/>
-        <v>75.099999999999994</v>
+        <v>72</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="3"/>
@@ -5273,7 +5308,7 @@
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>39.9</v>
       </c>
       <c r="T62">
         <v>36</v>
@@ -5285,23 +5320,23 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="0"/>
-        <v>70.2</v>
+        <v>67</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="3"/>
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>36.9</v>
       </c>
       <c r="T63">
         <v>42</v>
@@ -5390,7 +5425,7 @@
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="5"/>
-        <v>348.9</v>
+        <v>312.2</v>
       </c>
       <c r="L67">
         <f t="shared" ca="1" si="5"/>
@@ -5402,7 +5437,7 @@
       </c>
       <c r="N67">
         <f t="shared" ca="1" si="5"/>
-        <v>202.2</v>
+        <v>205.2</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -5447,7 +5482,7 @@
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="6"/>
-        <v>290.60000000000002</v>
+        <v>253.9</v>
       </c>
       <c r="L68">
         <f t="shared" ca="1" si="6"/>
@@ -5459,7 +5494,7 @@
       </c>
       <c r="N68">
         <f t="shared" ca="1" si="6"/>
-        <v>147.69999999999999</v>
+        <v>150.80000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -5504,7 +5539,7 @@
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="6"/>
-        <v>248.5</v>
+        <v>211</v>
       </c>
       <c r="L69">
         <f t="shared" ca="1" si="6"/>
@@ -5516,7 +5551,7 @@
       </c>
       <c r="N69">
         <f t="shared" ca="1" si="6"/>
-        <v>122.9</v>
+        <v>126.5</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -5561,7 +5596,7 @@
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="6"/>
-        <v>222.7</v>
+        <v>184.9</v>
       </c>
       <c r="L70">
         <f t="shared" ca="1" si="6"/>
@@ -5573,7 +5608,7 @@
       </c>
       <c r="N70">
         <f t="shared" ca="1" si="6"/>
-        <v>111.3</v>
+        <v>111.1</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -5618,7 +5653,7 @@
       </c>
       <c r="K71">
         <f t="shared" ca="1" si="6"/>
-        <v>182.7</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="L71">
         <f t="shared" ca="1" si="6"/>
@@ -5630,7 +5665,7 @@
       </c>
       <c r="N71">
         <f t="shared" ca="1" si="6"/>
-        <v>87.1</v>
+        <v>82.4</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -5675,7 +5710,7 @@
       </c>
       <c r="K72">
         <f t="shared" ca="1" si="6"/>
-        <v>172.6</v>
+        <v>134.80000000000001</v>
       </c>
       <c r="L72">
         <f t="shared" ca="1" si="6"/>
@@ -5687,7 +5722,7 @@
       </c>
       <c r="N72">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -5732,7 +5767,7 @@
       </c>
       <c r="K73">
         <f t="shared" ca="1" si="6"/>
-        <v>133.5</v>
+        <v>95.5</v>
       </c>
       <c r="L73">
         <f t="shared" ca="1" si="6"/>
@@ -5744,7 +5779,7 @@
       </c>
       <c r="N73">
         <f t="shared" ca="1" si="6"/>
-        <v>73.400000000000006</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -5789,7 +5824,7 @@
       </c>
       <c r="K74">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>58.9</v>
       </c>
       <c r="L74">
         <f t="shared" ca="1" si="6"/>
@@ -5801,7 +5836,7 @@
       </c>
       <c r="N74">
         <f t="shared" ca="1" si="6"/>
-        <v>73.400000000000006</v>
+        <v>70.2</v>
       </c>
     </row>
   </sheetData>

--- a/data/maingraphs-performance-table.xlsx
+++ b/data/maingraphs-performance-table.xlsx
@@ -261,8 +261,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="109">
+  <cellStyleXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -380,7 +384,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="109">
+  <cellStyles count="113">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -435,6 +439,8 @@
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -489,6 +495,8 @@
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3067,8 +3075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F63" sqref="A55:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/maingraphs-performance-table.xlsx
+++ b/data/maingraphs-performance-table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33560" windowHeight="20460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33560" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -261,8 +261,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="113">
+  <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -384,7 +386,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="113">
+  <cellStyles count="115">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -441,6 +443,7 @@
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -497,6 +500,7 @@
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -828,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3075,7 +3079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="F63" sqref="A55:F63"/>
     </sheetView>
   </sheetViews>
